--- a/PLAN DE TRABAJO INSTITUTO/CRONOGRAMA PLAN E TRABAJO.xlsx
+++ b/PLAN DE TRABAJO INSTITUTO/CRONOGRAMA PLAN E TRABAJO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\PROYECTOS INVIERTE.PE\10. INSTITUTO HUANCARAMA\PLAN DE TRABAJO INSTITUTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\REPOSITORIO ORFEI\PROYECTO-035\PLAN DE TRABAJO INSTITUTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85DC13E-83ED-466F-BA3C-EF83168E4305}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FAC14B8-3F5E-41F8-B209-DBC12B15BDC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="696" activeTab="2" xr2:uid="{2012C5C9-856F-4F31-AA7F-E5F916677A76}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="696" activeTab="1" xr2:uid="{2012C5C9-856F-4F31-AA7F-E5F916677A76}"/>
   </bookViews>
   <sheets>
     <sheet name="Profesionales" sheetId="2" r:id="rId1"/>
@@ -912,7 +912,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -982,6 +982,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1321,9 +1327,6 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1438,6 +1441,18 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1445,6 +1460,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1477,24 +1504,6 @@
     <xf numFmtId="0" fontId="12" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1503,6 +1512,12 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1534,15 +1549,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1566,16 +1572,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>83819</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>58420</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>29634</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>33021</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>82974</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1590,8 +1596,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8214359" y="2407920"/>
-          <a:ext cx="5974081" cy="53340"/>
+          <a:off x="11149753" y="2391834"/>
+          <a:ext cx="6002868" cy="53340"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1652,16 +1658,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>67</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>118534</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:rowOff>228599</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>95</xdr:col>
       <xdr:colOff>160020</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:rowOff>274318</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1675,9 +1681,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="20848320" y="11003280"/>
-          <a:ext cx="5600700" cy="60960"/>
+        <a:xfrm flipV="1">
+          <a:off x="22360467" y="10964332"/>
+          <a:ext cx="4122420" cy="45719"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1736,16 +1742,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>35859</xdr:colOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>61259</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:rowOff>115147</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>65</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>8467</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>188258</xdr:rowOff>
+      <xdr:rowOff>194733</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1760,8 +1766,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14218024" y="7161904"/>
-          <a:ext cx="6122894" cy="81578"/>
+          <a:off x="15690726" y="7227147"/>
+          <a:ext cx="6153274" cy="79586"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2126,47 +2132,47 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="140" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="1"/>
-    <col min="8" max="8" width="15.83203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="105.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="105.875" style="1" customWidth="1"/>
     <col min="10" max="16384" width="12" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="90" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="93" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="90" t="s">
+      <c r="C3" s="93" t="s">
         <v>101</v>
       </c>
-      <c r="D3" s="92" t="s">
+      <c r="D3" s="95" t="s">
         <v>102</v>
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="91"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="94"/>
       <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="92"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="95"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
     </row>
-    <row r="5" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>1</v>
       </c>
@@ -2182,7 +2188,7 @@
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
     </row>
-    <row r="6" spans="1:6" ht="165.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="179.4" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -2198,7 +2204,7 @@
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="69" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
         <v>4</v>
       </c>
@@ -2214,7 +2220,7 @@
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
     </row>
-    <row r="8" spans="1:6" ht="165.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="179.4" x14ac:dyDescent="0.3">
       <c r="A8" s="15">
         <v>5</v>
       </c>
@@ -2230,7 +2236,7 @@
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
     </row>
-    <row r="9" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="69" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <v>6</v>
       </c>
@@ -2246,7 +2252,7 @@
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
     </row>
-    <row r="10" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
         <v>7</v>
       </c>
@@ -2262,7 +2268,7 @@
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
     </row>
-    <row r="11" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="69" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
         <v>8</v>
       </c>
@@ -2278,7 +2284,7 @@
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
     </row>
-    <row r="12" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A12" s="29">
         <v>9</v>
       </c>
@@ -2294,7 +2300,7 @@
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="4" t="s">
         <v>11</v>
@@ -2304,7 +2310,7 @@
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
     </row>
-    <row r="14" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>1</v>
       </c>
@@ -2320,7 +2326,7 @@
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -2345,175 +2351,175 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85CDF6E6-72F1-46C6-9333-1BD2B93115BE}">
   <dimension ref="A1:CR102"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="AN52" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="BD68" sqref="BD68"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" style="37" customWidth="1"/>
-    <col min="2" max="2" width="75.33203125" style="37" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" style="64" customWidth="1"/>
+    <col min="1" max="1" width="6.875" style="37" customWidth="1"/>
+    <col min="2" max="2" width="75.375" style="37" customWidth="1"/>
+    <col min="3" max="3" width="20.125" style="63" customWidth="1"/>
     <col min="4" max="5" width="12" style="37"/>
-    <col min="6" max="6" width="6.83203125" style="37" customWidth="1"/>
+    <col min="6" max="6" width="6.875" style="37" customWidth="1"/>
     <col min="7" max="7" width="7" style="37" customWidth="1"/>
     <col min="8" max="8" width="5" style="37" customWidth="1"/>
-    <col min="9" max="11" width="4.33203125" style="37" customWidth="1"/>
-    <col min="12" max="13" width="3.33203125" style="37" customWidth="1"/>
+    <col min="9" max="11" width="4.375" style="37" customWidth="1"/>
+    <col min="12" max="13" width="3.375" style="37" customWidth="1"/>
     <col min="14" max="14" width="3" style="37" customWidth="1"/>
     <col min="15" max="15" width="3.5" style="37" customWidth="1"/>
-    <col min="16" max="16" width="3.33203125" style="37" customWidth="1"/>
-    <col min="17" max="17" width="3.1640625" style="37" customWidth="1"/>
-    <col min="18" max="19" width="3.6640625" style="37" customWidth="1"/>
-    <col min="20" max="20" width="3.1640625" style="37" customWidth="1"/>
-    <col min="21" max="24" width="3.33203125" style="37" customWidth="1"/>
+    <col min="16" max="16" width="3.375" style="37" customWidth="1"/>
+    <col min="17" max="17" width="3.125" style="37" customWidth="1"/>
+    <col min="18" max="19" width="3.625" style="37" customWidth="1"/>
+    <col min="20" max="20" width="3.125" style="37" customWidth="1"/>
+    <col min="21" max="24" width="3.375" style="37" customWidth="1"/>
     <col min="25" max="31" width="3" style="37" customWidth="1"/>
-    <col min="32" max="32" width="3.1640625" style="37" customWidth="1"/>
+    <col min="32" max="32" width="3.125" style="37" customWidth="1"/>
     <col min="33" max="33" width="3" style="37" customWidth="1"/>
-    <col min="34" max="42" width="3.33203125" style="37" customWidth="1"/>
+    <col min="34" max="42" width="3.375" style="37" customWidth="1"/>
     <col min="43" max="44" width="3" style="37" customWidth="1"/>
-    <col min="45" max="46" width="3.33203125" style="37" customWidth="1"/>
-    <col min="47" max="47" width="3.83203125" style="37" customWidth="1"/>
-    <col min="48" max="48" width="4.33203125" style="37" customWidth="1"/>
-    <col min="49" max="49" width="3.1640625" style="37" customWidth="1"/>
+    <col min="45" max="46" width="3.375" style="37" customWidth="1"/>
+    <col min="47" max="47" width="3.875" style="37" customWidth="1"/>
+    <col min="48" max="48" width="4.375" style="37" customWidth="1"/>
+    <col min="49" max="49" width="3.125" style="37" customWidth="1"/>
     <col min="50" max="50" width="3.5" style="37" customWidth="1"/>
     <col min="51" max="51" width="3" style="37" customWidth="1"/>
-    <col min="52" max="54" width="3.33203125" style="37" customWidth="1"/>
+    <col min="52" max="54" width="3.375" style="37" customWidth="1"/>
     <col min="55" max="59" width="3" style="37" customWidth="1"/>
-    <col min="60" max="60" width="3.1640625" style="37" customWidth="1"/>
+    <col min="60" max="60" width="3.125" style="37" customWidth="1"/>
     <col min="61" max="63" width="3" style="37" customWidth="1"/>
-    <col min="64" max="75" width="3.33203125" style="37" customWidth="1"/>
-    <col min="76" max="76" width="3.1640625" style="37" customWidth="1"/>
+    <col min="64" max="75" width="3.375" style="37" customWidth="1"/>
+    <col min="76" max="76" width="3.125" style="37" customWidth="1"/>
     <col min="77" max="78" width="3" style="37" customWidth="1"/>
-    <col min="79" max="85" width="3.33203125" style="37" customWidth="1"/>
+    <col min="79" max="85" width="3.375" style="37" customWidth="1"/>
     <col min="86" max="87" width="3" style="37" customWidth="1"/>
-    <col min="88" max="88" width="3.1640625" style="37" customWidth="1"/>
+    <col min="88" max="88" width="3.125" style="37" customWidth="1"/>
     <col min="89" max="94" width="3" style="37" customWidth="1"/>
-    <col min="95" max="96" width="3.33203125" style="37" customWidth="1"/>
+    <col min="95" max="96" width="3.375" style="37" customWidth="1"/>
     <col min="97" max="16384" width="12" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="96" t="s">
+    <row r="1" spans="1:96" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="103" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="98" t="s">
+      <c r="B1" s="103"/>
+      <c r="C1" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="100" t="s">
+      <c r="D1" s="107" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="98" t="s">
+      <c r="E1" s="105" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="102" t="s">
+      <c r="F1" s="109" t="s">
         <v>223</v>
       </c>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="102"/>
-      <c r="O1" s="102"/>
-      <c r="P1" s="102"/>
-      <c r="Q1" s="102"/>
-      <c r="R1" s="102"/>
-      <c r="S1" s="102"/>
-      <c r="T1" s="102"/>
-      <c r="U1" s="102"/>
-      <c r="V1" s="102"/>
-      <c r="W1" s="102"/>
-      <c r="X1" s="102"/>
-      <c r="Y1" s="102"/>
-      <c r="Z1" s="102"/>
-      <c r="AA1" s="102"/>
-      <c r="AB1" s="102"/>
-      <c r="AC1" s="102"/>
-      <c r="AD1" s="102"/>
-      <c r="AE1" s="102"/>
-      <c r="AF1" s="102"/>
-      <c r="AG1" s="102"/>
-      <c r="AH1" s="102"/>
-      <c r="AI1" s="103" t="s">
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
+      <c r="T1" s="109"/>
+      <c r="U1" s="109"/>
+      <c r="V1" s="109"/>
+      <c r="W1" s="109"/>
+      <c r="X1" s="109"/>
+      <c r="Y1" s="109"/>
+      <c r="Z1" s="109"/>
+      <c r="AA1" s="109"/>
+      <c r="AB1" s="109"/>
+      <c r="AC1" s="109"/>
+      <c r="AD1" s="109"/>
+      <c r="AE1" s="109"/>
+      <c r="AF1" s="109"/>
+      <c r="AG1" s="109"/>
+      <c r="AH1" s="109"/>
+      <c r="AI1" s="96" t="s">
         <v>224</v>
       </c>
-      <c r="AJ1" s="104"/>
-      <c r="AK1" s="104"/>
-      <c r="AL1" s="104"/>
-      <c r="AM1" s="104"/>
-      <c r="AN1" s="104"/>
-      <c r="AO1" s="104"/>
-      <c r="AP1" s="104"/>
-      <c r="AQ1" s="104"/>
-      <c r="AR1" s="104"/>
-      <c r="AS1" s="104"/>
-      <c r="AT1" s="104"/>
-      <c r="AU1" s="104"/>
-      <c r="AV1" s="104"/>
-      <c r="AW1" s="104"/>
-      <c r="AX1" s="104"/>
-      <c r="AY1" s="104"/>
-      <c r="AZ1" s="104"/>
-      <c r="BA1" s="104"/>
-      <c r="BB1" s="104"/>
-      <c r="BC1" s="104"/>
-      <c r="BD1" s="104"/>
-      <c r="BE1" s="104"/>
-      <c r="BF1" s="104"/>
-      <c r="BG1" s="104"/>
-      <c r="BH1" s="104"/>
-      <c r="BI1" s="104"/>
-      <c r="BJ1" s="104"/>
-      <c r="BK1" s="104"/>
-      <c r="BL1" s="104"/>
-      <c r="BM1" s="104"/>
-      <c r="BN1" s="105" t="s">
+      <c r="AJ1" s="97"/>
+      <c r="AK1" s="97"/>
+      <c r="AL1" s="97"/>
+      <c r="AM1" s="97"/>
+      <c r="AN1" s="97"/>
+      <c r="AO1" s="97"/>
+      <c r="AP1" s="97"/>
+      <c r="AQ1" s="97"/>
+      <c r="AR1" s="97"/>
+      <c r="AS1" s="97"/>
+      <c r="AT1" s="97"/>
+      <c r="AU1" s="97"/>
+      <c r="AV1" s="97"/>
+      <c r="AW1" s="97"/>
+      <c r="AX1" s="97"/>
+      <c r="AY1" s="97"/>
+      <c r="AZ1" s="97"/>
+      <c r="BA1" s="97"/>
+      <c r="BB1" s="97"/>
+      <c r="BC1" s="97"/>
+      <c r="BD1" s="97"/>
+      <c r="BE1" s="97"/>
+      <c r="BF1" s="97"/>
+      <c r="BG1" s="97"/>
+      <c r="BH1" s="97"/>
+      <c r="BI1" s="97"/>
+      <c r="BJ1" s="97"/>
+      <c r="BK1" s="97"/>
+      <c r="BL1" s="97"/>
+      <c r="BM1" s="97"/>
+      <c r="BN1" s="98" t="s">
         <v>155</v>
       </c>
-      <c r="BO1" s="106"/>
-      <c r="BP1" s="106"/>
-      <c r="BQ1" s="106"/>
-      <c r="BR1" s="106"/>
-      <c r="BS1" s="106"/>
-      <c r="BT1" s="106"/>
-      <c r="BU1" s="106"/>
-      <c r="BV1" s="106"/>
-      <c r="BW1" s="106"/>
-      <c r="BX1" s="106"/>
-      <c r="BY1" s="106"/>
-      <c r="BZ1" s="106"/>
-      <c r="CA1" s="106"/>
-      <c r="CB1" s="106"/>
-      <c r="CC1" s="106"/>
-      <c r="CD1" s="106"/>
-      <c r="CE1" s="106"/>
-      <c r="CF1" s="106"/>
-      <c r="CG1" s="106"/>
-      <c r="CH1" s="106"/>
-      <c r="CI1" s="106"/>
-      <c r="CJ1" s="106"/>
-      <c r="CK1" s="106"/>
-      <c r="CL1" s="106"/>
-      <c r="CM1" s="106"/>
-      <c r="CN1" s="106"/>
-      <c r="CO1" s="106"/>
-      <c r="CP1" s="106"/>
-      <c r="CQ1" s="106"/>
-      <c r="CR1" s="80"/>
-    </row>
-    <row r="2" spans="1:96" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="98"/>
+      <c r="BO1" s="99"/>
+      <c r="BP1" s="99"/>
+      <c r="BQ1" s="99"/>
+      <c r="BR1" s="99"/>
+      <c r="BS1" s="99"/>
+      <c r="BT1" s="99"/>
+      <c r="BU1" s="99"/>
+      <c r="BV1" s="99"/>
+      <c r="BW1" s="99"/>
+      <c r="BX1" s="99"/>
+      <c r="BY1" s="99"/>
+      <c r="BZ1" s="99"/>
+      <c r="CA1" s="99"/>
+      <c r="CB1" s="99"/>
+      <c r="CC1" s="99"/>
+      <c r="CD1" s="99"/>
+      <c r="CE1" s="99"/>
+      <c r="CF1" s="99"/>
+      <c r="CG1" s="99"/>
+      <c r="CH1" s="99"/>
+      <c r="CI1" s="99"/>
+      <c r="CJ1" s="99"/>
+      <c r="CK1" s="99"/>
+      <c r="CL1" s="99"/>
+      <c r="CM1" s="99"/>
+      <c r="CN1" s="99"/>
+      <c r="CO1" s="99"/>
+      <c r="CP1" s="99"/>
+      <c r="CQ1" s="99"/>
+      <c r="CR1" s="79"/>
+    </row>
+    <row r="2" spans="1:96" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="104"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="105"/>
       <c r="F2" s="38" t="s">
         <v>161</v>
       </c>
@@ -2788,14 +2794,14 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:96" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="114" t="s">
+    <row r="3" spans="1:96" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="117" t="s">
         <v>215</v>
       </c>
-      <c r="B3" s="115"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="98"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="105"/>
       <c r="F3" s="38">
         <v>2</v>
       </c>
@@ -3158,131 +3164,131 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:96" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="116"/>
-      <c r="B4" s="117"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="109" t="s">
+    <row r="4" spans="1:96" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="119"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="110" t="s">
         <v>162</v>
       </c>
-      <c r="G4" s="110"/>
-      <c r="H4" s="110"/>
-      <c r="I4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="112"/>
       <c r="J4" s="40"/>
       <c r="K4" s="40"/>
-      <c r="L4" s="93" t="s">
+      <c r="L4" s="100" t="s">
         <v>226</v>
       </c>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="94"/>
-      <c r="P4" s="95"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
+      <c r="P4" s="102"/>
       <c r="Q4" s="41"/>
       <c r="R4" s="41"/>
-      <c r="S4" s="93" t="s">
+      <c r="S4" s="100" t="s">
         <v>163</v>
       </c>
-      <c r="T4" s="94"/>
-      <c r="U4" s="94"/>
-      <c r="V4" s="94"/>
-      <c r="W4" s="95"/>
+      <c r="T4" s="101"/>
+      <c r="U4" s="101"/>
+      <c r="V4" s="101"/>
+      <c r="W4" s="102"/>
       <c r="X4" s="41"/>
       <c r="Y4" s="41"/>
-      <c r="Z4" s="93" t="s">
+      <c r="Z4" s="100" t="s">
         <v>164</v>
       </c>
-      <c r="AA4" s="94"/>
-      <c r="AB4" s="94"/>
-      <c r="AC4" s="94"/>
-      <c r="AD4" s="95"/>
+      <c r="AA4" s="101"/>
+      <c r="AB4" s="101"/>
+      <c r="AC4" s="101"/>
+      <c r="AD4" s="102"/>
       <c r="AE4" s="41"/>
       <c r="AF4" s="41"/>
-      <c r="AG4" s="93" t="s">
+      <c r="AG4" s="100" t="s">
         <v>165</v>
       </c>
-      <c r="AH4" s="94"/>
-      <c r="AI4" s="94"/>
-      <c r="AJ4" s="94"/>
-      <c r="AK4" s="95"/>
+      <c r="AH4" s="101"/>
+      <c r="AI4" s="101"/>
+      <c r="AJ4" s="101"/>
+      <c r="AK4" s="102"/>
       <c r="AL4" s="41"/>
       <c r="AM4" s="41"/>
-      <c r="AN4" s="93" t="s">
+      <c r="AN4" s="100" t="s">
         <v>166</v>
       </c>
-      <c r="AO4" s="94"/>
-      <c r="AP4" s="94"/>
-      <c r="AQ4" s="94"/>
-      <c r="AR4" s="95"/>
+      <c r="AO4" s="101"/>
+      <c r="AP4" s="101"/>
+      <c r="AQ4" s="101"/>
+      <c r="AR4" s="102"/>
       <c r="AS4" s="41"/>
       <c r="AT4" s="41"/>
-      <c r="AU4" s="93" t="s">
+      <c r="AU4" s="100" t="s">
         <v>167</v>
       </c>
-      <c r="AV4" s="94"/>
-      <c r="AW4" s="94"/>
-      <c r="AX4" s="94"/>
-      <c r="AY4" s="95"/>
+      <c r="AV4" s="101"/>
+      <c r="AW4" s="101"/>
+      <c r="AX4" s="101"/>
+      <c r="AY4" s="102"/>
       <c r="AZ4" s="41"/>
       <c r="BA4" s="41"/>
-      <c r="BB4" s="93" t="s">
+      <c r="BB4" s="100" t="s">
         <v>168</v>
       </c>
-      <c r="BC4" s="94"/>
-      <c r="BD4" s="94"/>
-      <c r="BE4" s="94"/>
-      <c r="BF4" s="95"/>
+      <c r="BC4" s="101"/>
+      <c r="BD4" s="101"/>
+      <c r="BE4" s="101"/>
+      <c r="BF4" s="102"/>
       <c r="BG4" s="41"/>
       <c r="BH4" s="41"/>
-      <c r="BI4" s="93" t="s">
+      <c r="BI4" s="100" t="s">
         <v>169</v>
       </c>
-      <c r="BJ4" s="94"/>
-      <c r="BK4" s="94"/>
-      <c r="BL4" s="94"/>
-      <c r="BM4" s="95"/>
+      <c r="BJ4" s="101"/>
+      <c r="BK4" s="101"/>
+      <c r="BL4" s="101"/>
+      <c r="BM4" s="102"/>
       <c r="BN4" s="41"/>
       <c r="BO4" s="41"/>
-      <c r="BP4" s="93" t="s">
+      <c r="BP4" s="100" t="s">
         <v>170</v>
       </c>
-      <c r="BQ4" s="94"/>
-      <c r="BR4" s="94"/>
-      <c r="BS4" s="94"/>
-      <c r="BT4" s="95"/>
+      <c r="BQ4" s="101"/>
+      <c r="BR4" s="101"/>
+      <c r="BS4" s="101"/>
+      <c r="BT4" s="102"/>
       <c r="BU4" s="41"/>
       <c r="BV4" s="41"/>
-      <c r="BW4" s="93" t="s">
+      <c r="BW4" s="100" t="s">
         <v>171</v>
       </c>
-      <c r="BX4" s="94"/>
-      <c r="BY4" s="94"/>
-      <c r="BZ4" s="94"/>
-      <c r="CA4" s="95"/>
+      <c r="BX4" s="101"/>
+      <c r="BY4" s="101"/>
+      <c r="BZ4" s="101"/>
+      <c r="CA4" s="102"/>
       <c r="CB4" s="41"/>
       <c r="CC4" s="41"/>
-      <c r="CD4" s="93" t="s">
+      <c r="CD4" s="100" t="s">
         <v>172</v>
       </c>
-      <c r="CE4" s="94"/>
-      <c r="CF4" s="94"/>
-      <c r="CG4" s="94"/>
-      <c r="CH4" s="95"/>
+      <c r="CE4" s="101"/>
+      <c r="CF4" s="101"/>
+      <c r="CG4" s="101"/>
+      <c r="CH4" s="102"/>
       <c r="CI4" s="41"/>
       <c r="CJ4" s="41"/>
-      <c r="CK4" s="93" t="s">
+      <c r="CK4" s="100" t="s">
         <v>173</v>
       </c>
-      <c r="CL4" s="94"/>
-      <c r="CM4" s="94"/>
-      <c r="CN4" s="94"/>
-      <c r="CO4" s="95"/>
+      <c r="CL4" s="101"/>
+      <c r="CM4" s="101"/>
+      <c r="CN4" s="101"/>
+      <c r="CO4" s="102"/>
       <c r="CP4" s="41"/>
       <c r="CQ4" s="41"/>
-      <c r="CR4" s="77"/>
-    </row>
-    <row r="5" spans="1:96" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CR4" s="76"/>
+    </row>
+    <row r="5" spans="1:96" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="43"/>
       <c r="B5" s="44" t="s">
         <v>213</v>
@@ -3292,110 +3298,110 @@
       </c>
       <c r="D5" s="46"/>
       <c r="E5" s="47"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
       <c r="J5" s="38"/>
       <c r="K5" s="38"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="77"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
       <c r="Q5" s="41"/>
       <c r="R5" s="41"/>
-      <c r="S5" s="77"/>
-      <c r="T5" s="77"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="77"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
+      <c r="W5" s="76"/>
       <c r="X5" s="41"/>
       <c r="Y5" s="41"/>
-      <c r="Z5" s="77"/>
-      <c r="AA5" s="77"/>
-      <c r="AB5" s="77"/>
-      <c r="AC5" s="77"/>
-      <c r="AD5" s="77"/>
+      <c r="Z5" s="76"/>
+      <c r="AA5" s="76"/>
+      <c r="AB5" s="76"/>
+      <c r="AC5" s="76"/>
+      <c r="AD5" s="76"/>
       <c r="AE5" s="41"/>
       <c r="AF5" s="41"/>
-      <c r="AG5" s="77"/>
-      <c r="AH5" s="77"/>
-      <c r="AI5" s="77"/>
-      <c r="AJ5" s="77"/>
-      <c r="AK5" s="77"/>
+      <c r="AG5" s="76"/>
+      <c r="AH5" s="76"/>
+      <c r="AI5" s="76"/>
+      <c r="AJ5" s="76"/>
+      <c r="AK5" s="76"/>
       <c r="AL5" s="41"/>
       <c r="AM5" s="41"/>
-      <c r="AN5" s="77"/>
-      <c r="AO5" s="77"/>
-      <c r="AP5" s="77"/>
-      <c r="AQ5" s="77"/>
-      <c r="AR5" s="77"/>
+      <c r="AN5" s="76"/>
+      <c r="AO5" s="76"/>
+      <c r="AP5" s="76"/>
+      <c r="AQ5" s="76"/>
+      <c r="AR5" s="76"/>
       <c r="AS5" s="41"/>
       <c r="AT5" s="41"/>
-      <c r="AU5" s="77"/>
-      <c r="AV5" s="77"/>
-      <c r="AW5" s="77"/>
-      <c r="AX5" s="77"/>
-      <c r="AY5" s="77"/>
+      <c r="AU5" s="76"/>
+      <c r="AV5" s="76"/>
+      <c r="AW5" s="76"/>
+      <c r="AX5" s="76"/>
+      <c r="AY5" s="76"/>
       <c r="AZ5" s="41"/>
       <c r="BA5" s="41"/>
-      <c r="BB5" s="77"/>
-      <c r="BC5" s="77"/>
-      <c r="BD5" s="77"/>
-      <c r="BE5" s="77"/>
-      <c r="BF5" s="77"/>
+      <c r="BB5" s="76"/>
+      <c r="BC5" s="76"/>
+      <c r="BD5" s="76"/>
+      <c r="BE5" s="76"/>
+      <c r="BF5" s="76"/>
       <c r="BG5" s="41"/>
       <c r="BH5" s="41"/>
-      <c r="BI5" s="77"/>
-      <c r="BJ5" s="77"/>
-      <c r="BK5" s="77"/>
-      <c r="BL5" s="77"/>
-      <c r="BM5" s="77"/>
+      <c r="BI5" s="76"/>
+      <c r="BJ5" s="76"/>
+      <c r="BK5" s="76"/>
+      <c r="BL5" s="76"/>
+      <c r="BM5" s="76"/>
       <c r="BN5" s="41"/>
       <c r="BO5" s="41"/>
-      <c r="BP5" s="77"/>
-      <c r="BQ5" s="77"/>
-      <c r="BR5" s="77"/>
-      <c r="BS5" s="77"/>
-      <c r="BT5" s="77"/>
+      <c r="BP5" s="76"/>
+      <c r="BQ5" s="76"/>
+      <c r="BR5" s="76"/>
+      <c r="BS5" s="76"/>
+      <c r="BT5" s="76"/>
       <c r="BU5" s="41"/>
       <c r="BV5" s="41"/>
-      <c r="BW5" s="77"/>
-      <c r="BX5" s="77"/>
-      <c r="BY5" s="77"/>
-      <c r="BZ5" s="77"/>
-      <c r="CA5" s="77"/>
+      <c r="BW5" s="76"/>
+      <c r="BX5" s="76"/>
+      <c r="BY5" s="76"/>
+      <c r="BZ5" s="76"/>
+      <c r="CA5" s="76"/>
       <c r="CB5" s="41"/>
       <c r="CC5" s="41"/>
-      <c r="CD5" s="77"/>
-      <c r="CE5" s="77"/>
-      <c r="CF5" s="77"/>
-      <c r="CG5" s="77"/>
-      <c r="CH5" s="77"/>
+      <c r="CD5" s="76"/>
+      <c r="CE5" s="76"/>
+      <c r="CF5" s="76"/>
+      <c r="CG5" s="76"/>
+      <c r="CH5" s="76"/>
       <c r="CI5" s="41"/>
       <c r="CJ5" s="41"/>
-      <c r="CK5" s="77"/>
-      <c r="CL5" s="77"/>
-      <c r="CM5" s="77"/>
-      <c r="CN5" s="77"/>
-      <c r="CO5" s="77"/>
+      <c r="CK5" s="76"/>
+      <c r="CL5" s="76"/>
+      <c r="CM5" s="76"/>
+      <c r="CN5" s="76"/>
+      <c r="CO5" s="76"/>
       <c r="CP5" s="41"/>
       <c r="CQ5" s="41"/>
-      <c r="CR5" s="77"/>
-    </row>
-    <row r="6" spans="1:96" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="71" t="s">
+      <c r="CR5" s="76"/>
+    </row>
+    <row r="6" spans="1:96" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="70" t="s">
         <v>176</v>
       </c>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="81">
+      <c r="C6" s="64"/>
+      <c r="D6" s="80">
         <v>43983</v>
       </c>
-      <c r="E6" s="82">
+      <c r="E6" s="81">
         <v>43984</v>
       </c>
       <c r="F6" s="46"/>
@@ -3490,7 +3496,7 @@
       <c r="CQ6" s="42"/>
       <c r="CR6" s="42"/>
     </row>
-    <row r="7" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A7" s="42">
         <v>1.01</v>
       </c>
@@ -3500,10 +3506,10 @@
       <c r="C7" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="D7" s="112" t="s">
+      <c r="D7" s="115" t="s">
         <v>216</v>
       </c>
-      <c r="E7" s="118"/>
+      <c r="E7" s="121"/>
       <c r="F7" s="42"/>
       <c r="G7" s="42"/>
       <c r="H7" s="42"/>
@@ -3596,7 +3602,7 @@
       <c r="CQ7" s="42"/>
       <c r="CR7" s="42"/>
     </row>
-    <row r="8" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A8" s="42">
         <v>1.02</v>
       </c>
@@ -3606,10 +3612,10 @@
       <c r="C8" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="D8" s="112" t="s">
+      <c r="D8" s="115" t="s">
         <v>216</v>
       </c>
-      <c r="E8" s="118"/>
+      <c r="E8" s="121"/>
       <c r="F8" s="42"/>
       <c r="G8" s="42"/>
       <c r="H8" s="42"/>
@@ -3702,7 +3708,7 @@
       <c r="CQ8" s="42"/>
       <c r="CR8" s="42"/>
     </row>
-    <row r="9" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A9" s="42">
         <v>1.03</v>
       </c>
@@ -3712,10 +3718,10 @@
       <c r="C9" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="D9" s="112" t="s">
+      <c r="D9" s="115" t="s">
         <v>216</v>
       </c>
-      <c r="E9" s="118"/>
+      <c r="E9" s="121"/>
       <c r="F9" s="42"/>
       <c r="G9" s="42"/>
       <c r="H9" s="42"/>
@@ -3808,7 +3814,7 @@
       <c r="CQ9" s="42"/>
       <c r="CR9" s="42"/>
     </row>
-    <row r="10" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A10" s="42">
         <v>1.04</v>
       </c>
@@ -3818,10 +3824,10 @@
       <c r="C10" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="D10" s="112" t="s">
+      <c r="D10" s="115" t="s">
         <v>216</v>
       </c>
-      <c r="E10" s="118"/>
+      <c r="E10" s="121"/>
       <c r="F10" s="42"/>
       <c r="G10" s="42"/>
       <c r="H10" s="42"/>
@@ -3914,19 +3920,19 @@
       <c r="CQ10" s="42"/>
       <c r="CR10" s="42"/>
     </row>
-    <row r="11" spans="1:96" x14ac:dyDescent="0.2">
-      <c r="A11" s="73" t="s">
+    <row r="11" spans="1:96" x14ac:dyDescent="0.3">
+      <c r="A11" s="72" t="s">
         <v>175</v>
       </c>
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="73" t="s">
         <v>177</v>
       </c>
-      <c r="C11" s="75"/>
-      <c r="D11" s="83">
-        <v>43984</v>
-      </c>
-      <c r="E11" s="84">
-        <v>44012</v>
+      <c r="C11" s="74"/>
+      <c r="D11" s="82">
+        <v>43997</v>
+      </c>
+      <c r="E11" s="83">
+        <v>44026</v>
       </c>
       <c r="F11" s="42"/>
       <c r="G11" s="42"/>
@@ -4020,69 +4026,69 @@
       <c r="CQ11" s="42"/>
       <c r="CR11" s="42"/>
     </row>
-    <row r="12" spans="1:96" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="52">
+    <row r="12" spans="1:96" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="51">
         <v>2</v>
       </c>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="67"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="54"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="53"/>
       <c r="F12" s="42"/>
       <c r="G12" s="42"/>
       <c r="H12" s="42"/>
       <c r="I12" s="42"/>
       <c r="J12" s="42"/>
       <c r="K12" s="42"/>
-      <c r="L12" s="78"/>
-      <c r="M12" s="78"/>
-      <c r="N12" s="78"/>
-      <c r="O12" s="78"/>
-      <c r="P12" s="78"/>
-      <c r="Q12" s="78"/>
-      <c r="R12" s="78"/>
-      <c r="S12" s="78"/>
-      <c r="T12" s="78"/>
-      <c r="U12" s="78"/>
-      <c r="V12" s="78"/>
-      <c r="W12" s="78"/>
-      <c r="X12" s="78"/>
-      <c r="Y12" s="78"/>
-      <c r="Z12" s="78"/>
-      <c r="AA12" s="78"/>
-      <c r="AB12" s="78"/>
-      <c r="AC12" s="78"/>
-      <c r="AD12" s="78"/>
-      <c r="AE12" s="78"/>
-      <c r="AF12" s="78"/>
-      <c r="AG12" s="78"/>
-      <c r="AH12" s="78"/>
-      <c r="AI12" s="78"/>
-      <c r="AJ12" s="78"/>
-      <c r="AK12" s="78"/>
-      <c r="AL12" s="78"/>
-      <c r="AM12" s="78"/>
-      <c r="AN12" s="78"/>
-      <c r="AO12" s="78"/>
-      <c r="AP12" s="78"/>
-      <c r="AQ12" s="78"/>
-      <c r="AR12" s="78"/>
-      <c r="AS12" s="78"/>
-      <c r="AT12" s="78"/>
-      <c r="AU12" s="78"/>
-      <c r="AV12" s="78"/>
-      <c r="AW12" s="78"/>
-      <c r="AX12" s="78"/>
-      <c r="AY12" s="78"/>
-      <c r="AZ12" s="78"/>
-      <c r="BA12" s="78"/>
-      <c r="BB12" s="78"/>
-      <c r="BC12" s="78"/>
-      <c r="BD12" s="78"/>
-      <c r="BE12" s="78"/>
-      <c r="BF12" s="78"/>
+      <c r="L12" s="77"/>
+      <c r="M12" s="77"/>
+      <c r="N12" s="77"/>
+      <c r="O12" s="77"/>
+      <c r="P12" s="77"/>
+      <c r="Q12" s="77"/>
+      <c r="R12" s="77"/>
+      <c r="S12" s="77"/>
+      <c r="T12" s="77"/>
+      <c r="U12" s="77"/>
+      <c r="V12" s="77"/>
+      <c r="W12" s="77"/>
+      <c r="X12" s="77"/>
+      <c r="Y12" s="77"/>
+      <c r="Z12" s="77"/>
+      <c r="AA12" s="77"/>
+      <c r="AB12" s="77"/>
+      <c r="AC12" s="77"/>
+      <c r="AD12" s="77"/>
+      <c r="AE12" s="77"/>
+      <c r="AF12" s="77"/>
+      <c r="AG12" s="77"/>
+      <c r="AH12" s="77"/>
+      <c r="AI12" s="77"/>
+      <c r="AJ12" s="77"/>
+      <c r="AK12" s="77"/>
+      <c r="AL12" s="77"/>
+      <c r="AM12" s="77"/>
+      <c r="AN12" s="77"/>
+      <c r="AO12" s="77"/>
+      <c r="AP12" s="77"/>
+      <c r="AQ12" s="77"/>
+      <c r="AR12" s="77"/>
+      <c r="AS12" s="77"/>
+      <c r="AT12" s="77"/>
+      <c r="AU12" s="77"/>
+      <c r="AV12" s="77"/>
+      <c r="AW12" s="77"/>
+      <c r="AX12" s="77"/>
+      <c r="AY12" s="77"/>
+      <c r="AZ12" s="77"/>
+      <c r="BA12" s="77"/>
+      <c r="BB12" s="77"/>
+      <c r="BC12" s="77"/>
+      <c r="BD12" s="77"/>
+      <c r="BE12" s="77"/>
+      <c r="BF12" s="77"/>
       <c r="BG12" s="42"/>
       <c r="BH12" s="42"/>
       <c r="BI12" s="42"/>
@@ -4122,32 +4128,32 @@
       <c r="CQ12" s="42"/>
       <c r="CR12" s="42"/>
     </row>
-    <row r="13" spans="1:96" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:96" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="42"/>
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="C13" s="68" t="s">
+      <c r="C13" s="67" t="s">
         <v>217</v>
       </c>
-      <c r="D13" s="53"/>
-      <c r="E13" s="54"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="53"/>
       <c r="F13" s="42"/>
       <c r="G13" s="42"/>
       <c r="H13" s="42"/>
       <c r="I13" s="42"/>
       <c r="J13" s="42"/>
       <c r="K13" s="42"/>
-      <c r="L13" s="51"/>
+      <c r="L13" s="42"/>
       <c r="M13" s="42"/>
       <c r="N13" s="42"/>
       <c r="O13" s="42"/>
       <c r="P13" s="42"/>
       <c r="Q13" s="42"/>
       <c r="R13" s="42"/>
-      <c r="S13" s="42"/>
+      <c r="S13" s="92"/>
       <c r="T13" s="42"/>
-      <c r="U13" s="42"/>
+      <c r="U13" s="92"/>
       <c r="V13" s="42"/>
       <c r="W13" s="42"/>
       <c r="X13" s="42"/>
@@ -4224,7 +4230,7 @@
       <c r="CQ13" s="42"/>
       <c r="CR13" s="42"/>
     </row>
-    <row r="14" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A14" s="42">
         <v>2.0099999999999998</v>
       </c>
@@ -4234,8 +4240,8 @@
       <c r="C14" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="D14" s="53"/>
-      <c r="E14" s="54"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="53"/>
       <c r="F14" s="42"/>
       <c r="G14" s="42"/>
       <c r="H14" s="42"/>
@@ -4243,7 +4249,7 @@
       <c r="J14" s="42"/>
       <c r="K14" s="42"/>
       <c r="L14" s="42"/>
-      <c r="M14" s="51"/>
+      <c r="M14" s="42"/>
       <c r="N14" s="42"/>
       <c r="O14" s="42"/>
       <c r="P14" s="42"/>
@@ -4252,7 +4258,7 @@
       <c r="S14" s="42"/>
       <c r="T14" s="42"/>
       <c r="U14" s="42"/>
-      <c r="V14" s="42"/>
+      <c r="V14" s="92"/>
       <c r="W14" s="42"/>
       <c r="X14" s="42"/>
       <c r="Y14" s="42"/>
@@ -4328,7 +4334,7 @@
       <c r="CQ14" s="42"/>
       <c r="CR14" s="42"/>
     </row>
-    <row r="15" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A15" s="42">
         <v>2.02</v>
       </c>
@@ -4338,8 +4344,8 @@
       <c r="C15" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="D15" s="53"/>
-      <c r="E15" s="54"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="53"/>
       <c r="F15" s="42"/>
       <c r="G15" s="42"/>
       <c r="H15" s="42"/>
@@ -4347,7 +4353,7 @@
       <c r="J15" s="42"/>
       <c r="K15" s="42"/>
       <c r="L15" s="42"/>
-      <c r="M15" s="51"/>
+      <c r="M15" s="42"/>
       <c r="N15" s="42"/>
       <c r="O15" s="42"/>
       <c r="P15" s="42"/>
@@ -4356,7 +4362,7 @@
       <c r="S15" s="42"/>
       <c r="T15" s="42"/>
       <c r="U15" s="42"/>
-      <c r="V15" s="42"/>
+      <c r="V15" s="92"/>
       <c r="W15" s="42"/>
       <c r="X15" s="42"/>
       <c r="Y15" s="42"/>
@@ -4432,18 +4438,18 @@
       <c r="CQ15" s="42"/>
       <c r="CR15" s="42"/>
     </row>
-    <row r="16" spans="1:96" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:96" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A16" s="42">
         <v>2.0299999999999998</v>
       </c>
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="55" t="s">
         <v>34</v>
       </c>
       <c r="C16" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="D16" s="53"/>
-      <c r="E16" s="54"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="53"/>
       <c r="F16" s="42"/>
       <c r="G16" s="42"/>
       <c r="H16" s="42"/>
@@ -4452,7 +4458,7 @@
       <c r="K16" s="42"/>
       <c r="L16" s="42"/>
       <c r="M16" s="42"/>
-      <c r="N16" s="51"/>
+      <c r="N16" s="42"/>
       <c r="O16" s="42"/>
       <c r="P16" s="42"/>
       <c r="Q16" s="42"/>
@@ -4461,7 +4467,7 @@
       <c r="T16" s="42"/>
       <c r="U16" s="42"/>
       <c r="V16" s="42"/>
-      <c r="W16" s="42"/>
+      <c r="W16" s="92"/>
       <c r="X16" s="42"/>
       <c r="Y16" s="42"/>
       <c r="Z16" s="42"/>
@@ -4536,18 +4542,18 @@
       <c r="CQ16" s="42"/>
       <c r="CR16" s="42"/>
     </row>
-    <row r="17" spans="1:96" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:96" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A17" s="42">
         <v>2.04</v>
       </c>
-      <c r="B17" s="56" t="s">
+      <c r="B17" s="55" t="s">
         <v>35</v>
       </c>
       <c r="C17" s="38" t="s">
         <v>218</v>
       </c>
-      <c r="D17" s="53"/>
-      <c r="E17" s="54"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="53"/>
       <c r="F17" s="42"/>
       <c r="G17" s="42"/>
       <c r="H17" s="42"/>
@@ -4556,20 +4562,20 @@
       <c r="K17" s="42"/>
       <c r="L17" s="42"/>
       <c r="M17" s="42"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="51"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
       <c r="Q17" s="42"/>
       <c r="R17" s="42"/>
       <c r="S17" s="42"/>
       <c r="T17" s="42"/>
       <c r="U17" s="42"/>
       <c r="V17" s="42"/>
-      <c r="W17" s="42"/>
+      <c r="W17" s="92"/>
       <c r="X17" s="42"/>
       <c r="Y17" s="42"/>
-      <c r="Z17" s="42"/>
-      <c r="AA17" s="42"/>
+      <c r="Z17" s="92"/>
+      <c r="AA17" s="92"/>
       <c r="AB17" s="42"/>
       <c r="AC17" s="42"/>
       <c r="AD17" s="42"/>
@@ -4640,7 +4646,7 @@
       <c r="CQ17" s="42"/>
       <c r="CR17" s="42"/>
     </row>
-    <row r="18" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A18" s="42">
         <v>2.0499999999999998</v>
       </c>
@@ -4650,8 +4656,8 @@
       <c r="C18" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="D18" s="57"/>
-      <c r="E18" s="58"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="57"/>
       <c r="F18" s="42"/>
       <c r="G18" s="42"/>
       <c r="H18" s="42"/>
@@ -4667,9 +4673,9 @@
       <c r="R18" s="42"/>
       <c r="S18" s="42"/>
       <c r="T18" s="42"/>
-      <c r="U18" s="42"/>
-      <c r="V18" s="42"/>
-      <c r="W18" s="42"/>
+      <c r="U18" s="92"/>
+      <c r="V18" s="92"/>
+      <c r="W18" s="92"/>
       <c r="X18" s="42"/>
       <c r="Y18" s="42"/>
       <c r="Z18" s="42"/>
@@ -4744,16 +4750,16 @@
       <c r="CQ18" s="42"/>
       <c r="CR18" s="42"/>
     </row>
-    <row r="19" spans="1:96" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="52">
+    <row r="19" spans="1:96" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="51">
         <v>3</v>
       </c>
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="67"/>
+      <c r="C19" s="66"/>
       <c r="D19" s="42"/>
-      <c r="E19" s="59"/>
+      <c r="E19" s="58"/>
       <c r="F19" s="42"/>
       <c r="G19" s="42"/>
       <c r="H19" s="42"/>
@@ -4846,7 +4852,7 @@
       <c r="CQ19" s="42"/>
       <c r="CR19" s="42"/>
     </row>
-    <row r="20" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A20" s="42">
         <v>3.01</v>
       </c>
@@ -4856,8 +4862,8 @@
       <c r="C20" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="D20" s="53"/>
-      <c r="E20" s="54"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="53"/>
       <c r="F20" s="42"/>
       <c r="G20" s="42"/>
       <c r="H20" s="42"/>
@@ -4867,8 +4873,8 @@
       <c r="L20" s="42"/>
       <c r="M20" s="42"/>
       <c r="N20" s="42"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="51"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
       <c r="Q20" s="42"/>
       <c r="R20" s="42"/>
       <c r="S20" s="42"/>
@@ -4878,8 +4884,8 @@
       <c r="W20" s="42"/>
       <c r="X20" s="42"/>
       <c r="Y20" s="42"/>
-      <c r="Z20" s="42"/>
-      <c r="AA20" s="42"/>
+      <c r="Z20" s="92"/>
+      <c r="AA20" s="92"/>
       <c r="AB20" s="42"/>
       <c r="AC20" s="42"/>
       <c r="AD20" s="42"/>
@@ -4950,7 +4956,7 @@
       <c r="CQ20" s="42"/>
       <c r="CR20" s="42"/>
     </row>
-    <row r="21" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A21" s="42">
         <v>3.02</v>
       </c>
@@ -4960,8 +4966,8 @@
       <c r="C21" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="D21" s="53"/>
-      <c r="E21" s="54"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="53"/>
       <c r="F21" s="42"/>
       <c r="G21" s="42"/>
       <c r="H21" s="42"/>
@@ -4972,7 +4978,7 @@
       <c r="M21" s="42"/>
       <c r="N21" s="42"/>
       <c r="O21" s="42"/>
-      <c r="P21" s="51"/>
+      <c r="P21" s="42"/>
       <c r="Q21" s="42"/>
       <c r="R21" s="42"/>
       <c r="S21" s="42"/>
@@ -4983,7 +4989,7 @@
       <c r="X21" s="42"/>
       <c r="Y21" s="42"/>
       <c r="Z21" s="42"/>
-      <c r="AA21" s="42"/>
+      <c r="AA21" s="92"/>
       <c r="AB21" s="42"/>
       <c r="AC21" s="42"/>
       <c r="AD21" s="42"/>
@@ -5054,7 +5060,7 @@
       <c r="CQ21" s="42"/>
       <c r="CR21" s="42"/>
     </row>
-    <row r="22" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A22" s="42">
         <v>3.03</v>
       </c>
@@ -5064,8 +5070,8 @@
       <c r="C22" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="D22" s="53"/>
-      <c r="E22" s="54"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="53"/>
       <c r="F22" s="42"/>
       <c r="G22" s="42"/>
       <c r="H22" s="42"/>
@@ -5076,7 +5082,7 @@
       <c r="M22" s="42"/>
       <c r="N22" s="42"/>
       <c r="O22" s="42"/>
-      <c r="P22" s="51"/>
+      <c r="P22" s="42"/>
       <c r="Q22" s="42"/>
       <c r="R22" s="42"/>
       <c r="S22" s="42"/>
@@ -5087,7 +5093,7 @@
       <c r="X22" s="42"/>
       <c r="Y22" s="42"/>
       <c r="Z22" s="42"/>
-      <c r="AA22" s="42"/>
+      <c r="AA22" s="92"/>
       <c r="AB22" s="42"/>
       <c r="AC22" s="42"/>
       <c r="AD22" s="42"/>
@@ -5158,7 +5164,7 @@
       <c r="CQ22" s="42"/>
       <c r="CR22" s="42"/>
     </row>
-    <row r="23" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A23" s="42">
         <v>3.04</v>
       </c>
@@ -5166,10 +5172,10 @@
         <v>53</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="D23" s="53"/>
-      <c r="E23" s="54"/>
+        <v>220</v>
+      </c>
+      <c r="D23" s="52"/>
+      <c r="E23" s="53"/>
       <c r="F23" s="42"/>
       <c r="G23" s="42"/>
       <c r="H23" s="42"/>
@@ -5183,8 +5189,8 @@
       <c r="P23" s="42"/>
       <c r="Q23" s="42"/>
       <c r="R23" s="42"/>
-      <c r="S23" s="51"/>
-      <c r="T23" s="51"/>
+      <c r="S23" s="42"/>
+      <c r="T23" s="42"/>
       <c r="U23" s="42"/>
       <c r="V23" s="42"/>
       <c r="W23" s="42"/>
@@ -5192,8 +5198,8 @@
       <c r="Y23" s="42"/>
       <c r="Z23" s="42"/>
       <c r="AA23" s="42"/>
-      <c r="AB23" s="42"/>
-      <c r="AC23" s="42"/>
+      <c r="AB23" s="92"/>
+      <c r="AC23" s="92"/>
       <c r="AD23" s="42"/>
       <c r="AE23" s="42"/>
       <c r="AF23" s="42"/>
@@ -5262,7 +5268,7 @@
       <c r="CQ23" s="42"/>
       <c r="CR23" s="42"/>
     </row>
-    <row r="24" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A24" s="42">
         <v>3.05</v>
       </c>
@@ -5270,10 +5276,10 @@
         <v>42</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="D24" s="53"/>
-      <c r="E24" s="54"/>
+        <v>220</v>
+      </c>
+      <c r="D24" s="52"/>
+      <c r="E24" s="53"/>
       <c r="F24" s="42"/>
       <c r="G24" s="42"/>
       <c r="H24" s="42"/>
@@ -5287,8 +5293,8 @@
       <c r="P24" s="42"/>
       <c r="Q24" s="42"/>
       <c r="R24" s="42"/>
-      <c r="S24" s="51"/>
-      <c r="T24" s="51"/>
+      <c r="S24" s="42"/>
+      <c r="T24" s="42"/>
       <c r="U24" s="42"/>
       <c r="V24" s="42"/>
       <c r="W24" s="42"/>
@@ -5296,8 +5302,8 @@
       <c r="Y24" s="42"/>
       <c r="Z24" s="42"/>
       <c r="AA24" s="42"/>
-      <c r="AB24" s="42"/>
-      <c r="AC24" s="42"/>
+      <c r="AB24" s="92"/>
+      <c r="AC24" s="92"/>
       <c r="AD24" s="42"/>
       <c r="AE24" s="42"/>
       <c r="AF24" s="42"/>
@@ -5366,7 +5372,7 @@
       <c r="CQ24" s="42"/>
       <c r="CR24" s="42"/>
     </row>
-    <row r="25" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A25" s="42">
         <v>3.06</v>
       </c>
@@ -5376,8 +5382,8 @@
       <c r="C25" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="D25" s="53"/>
-      <c r="E25" s="54"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="53"/>
       <c r="F25" s="42"/>
       <c r="G25" s="42"/>
       <c r="H25" s="42"/>
@@ -5393,9 +5399,9 @@
       <c r="R25" s="42"/>
       <c r="S25" s="42"/>
       <c r="T25" s="42"/>
-      <c r="U25" s="51"/>
-      <c r="V25" s="51"/>
-      <c r="W25" s="51"/>
+      <c r="U25" s="42"/>
+      <c r="V25" s="42"/>
+      <c r="W25" s="42"/>
       <c r="X25" s="42"/>
       <c r="Y25" s="42"/>
       <c r="Z25" s="42"/>
@@ -5405,8 +5411,8 @@
       <c r="AD25" s="42"/>
       <c r="AE25" s="42"/>
       <c r="AF25" s="42"/>
-      <c r="AG25" s="42"/>
-      <c r="AH25" s="42"/>
+      <c r="AG25" s="92"/>
+      <c r="AH25" s="92"/>
       <c r="AI25" s="42"/>
       <c r="AJ25" s="42"/>
       <c r="AK25" s="42"/>
@@ -5470,7 +5476,7 @@
       <c r="CQ25" s="42"/>
       <c r="CR25" s="42"/>
     </row>
-    <row r="26" spans="1:96" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:96" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="42">
         <v>3.07</v>
       </c>
@@ -5480,8 +5486,8 @@
       <c r="C26" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="D26" s="53"/>
-      <c r="E26" s="54"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="53"/>
       <c r="F26" s="42"/>
       <c r="G26" s="42"/>
       <c r="H26" s="42"/>
@@ -5497,9 +5503,9 @@
       <c r="R26" s="42"/>
       <c r="S26" s="42"/>
       <c r="T26" s="42"/>
-      <c r="U26" s="51"/>
-      <c r="V26" s="51"/>
-      <c r="W26" s="51"/>
+      <c r="U26" s="42"/>
+      <c r="V26" s="42"/>
+      <c r="W26" s="42"/>
       <c r="X26" s="42"/>
       <c r="Y26" s="42"/>
       <c r="Z26" s="42"/>
@@ -5509,8 +5515,8 @@
       <c r="AD26" s="42"/>
       <c r="AE26" s="42"/>
       <c r="AF26" s="42"/>
-      <c r="AG26" s="42"/>
-      <c r="AH26" s="42"/>
+      <c r="AG26" s="92"/>
+      <c r="AH26" s="92"/>
       <c r="AI26" s="42"/>
       <c r="AJ26" s="42"/>
       <c r="AK26" s="42"/>
@@ -5574,18 +5580,18 @@
       <c r="CQ26" s="42"/>
       <c r="CR26" s="42"/>
     </row>
-    <row r="27" spans="1:96" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A27" s="42">
         <v>3.08</v>
       </c>
-      <c r="B27" s="56" t="s">
+      <c r="B27" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="68" t="s">
+      <c r="C27" s="67" t="s">
         <v>111</v>
       </c>
-      <c r="D27" s="53"/>
-      <c r="E27" s="54"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="53"/>
       <c r="F27" s="42"/>
       <c r="G27" s="42"/>
       <c r="H27" s="42"/>
@@ -5606,22 +5612,22 @@
       <c r="W27" s="42"/>
       <c r="X27" s="42"/>
       <c r="Y27" s="42"/>
-      <c r="Z27" s="51"/>
-      <c r="AA27" s="51"/>
-      <c r="AB27" s="51"/>
-      <c r="AC27" s="51"/>
-      <c r="AD27" s="51"/>
+      <c r="Z27" s="42"/>
+      <c r="AA27" s="42"/>
+      <c r="AB27" s="42"/>
+      <c r="AC27" s="42"/>
+      <c r="AD27" s="42"/>
       <c r="AE27" s="42"/>
       <c r="AF27" s="42"/>
       <c r="AG27" s="42"/>
       <c r="AH27" s="42"/>
       <c r="AI27" s="42"/>
-      <c r="AJ27" s="42"/>
-      <c r="AK27" s="42"/>
+      <c r="AJ27" s="92"/>
+      <c r="AK27" s="92"/>
       <c r="AL27" s="42"/>
       <c r="AM27" s="42"/>
-      <c r="AN27" s="42"/>
-      <c r="AO27" s="42"/>
+      <c r="AN27" s="92"/>
+      <c r="AO27" s="92"/>
       <c r="AP27" s="42"/>
       <c r="AQ27" s="42"/>
       <c r="AR27" s="42"/>
@@ -5678,18 +5684,18 @@
       <c r="CQ27" s="42"/>
       <c r="CR27" s="42"/>
     </row>
-    <row r="28" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A28" s="42">
         <v>3.09</v>
       </c>
       <c r="B28" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="68" t="s">
+      <c r="C28" s="67" t="s">
         <v>111</v>
       </c>
-      <c r="D28" s="53"/>
-      <c r="E28" s="54"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="53"/>
       <c r="F28" s="42"/>
       <c r="G28" s="42"/>
       <c r="H28" s="42"/>
@@ -5710,11 +5716,11 @@
       <c r="W28" s="42"/>
       <c r="X28" s="42"/>
       <c r="Y28" s="42"/>
-      <c r="Z28" s="51"/>
-      <c r="AA28" s="51"/>
-      <c r="AB28" s="51"/>
-      <c r="AC28" s="51"/>
-      <c r="AD28" s="51"/>
+      <c r="Z28" s="42"/>
+      <c r="AA28" s="42"/>
+      <c r="AB28" s="42"/>
+      <c r="AC28" s="42"/>
+      <c r="AD28" s="42"/>
       <c r="AE28" s="42"/>
       <c r="AF28" s="42"/>
       <c r="AG28" s="42"/>
@@ -5724,8 +5730,8 @@
       <c r="AK28" s="42"/>
       <c r="AL28" s="42"/>
       <c r="AM28" s="42"/>
-      <c r="AN28" s="42"/>
-      <c r="AO28" s="42"/>
+      <c r="AN28" s="92"/>
+      <c r="AO28" s="92"/>
       <c r="AP28" s="42"/>
       <c r="AQ28" s="42"/>
       <c r="AR28" s="42"/>
@@ -5782,18 +5788,18 @@
       <c r="CQ28" s="42"/>
       <c r="CR28" s="42"/>
     </row>
-    <row r="29" spans="1:96" x14ac:dyDescent="0.2">
-      <c r="A29" s="60">
+    <row r="29" spans="1:96" x14ac:dyDescent="0.3">
+      <c r="A29" s="59">
         <v>3.1</v>
       </c>
       <c r="B29" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="68" t="s">
+      <c r="C29" s="67" t="s">
         <v>111</v>
       </c>
-      <c r="D29" s="53"/>
-      <c r="E29" s="54"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="53"/>
       <c r="F29" s="42"/>
       <c r="G29" s="42"/>
       <c r="H29" s="42"/>
@@ -5814,11 +5820,11 @@
       <c r="W29" s="42"/>
       <c r="X29" s="42"/>
       <c r="Y29" s="42"/>
-      <c r="Z29" s="51"/>
-      <c r="AA29" s="51"/>
-      <c r="AB29" s="51"/>
-      <c r="AC29" s="51"/>
-      <c r="AD29" s="51"/>
+      <c r="Z29" s="42"/>
+      <c r="AA29" s="42"/>
+      <c r="AB29" s="42"/>
+      <c r="AC29" s="42"/>
+      <c r="AD29" s="42"/>
       <c r="AE29" s="42"/>
       <c r="AF29" s="42"/>
       <c r="AG29" s="42"/>
@@ -5829,7 +5835,7 @@
       <c r="AL29" s="42"/>
       <c r="AM29" s="42"/>
       <c r="AN29" s="42"/>
-      <c r="AO29" s="42"/>
+      <c r="AO29" s="92"/>
       <c r="AP29" s="42"/>
       <c r="AQ29" s="42"/>
       <c r="AR29" s="42"/>
@@ -5886,16 +5892,16 @@
       <c r="CQ29" s="42"/>
       <c r="CR29" s="42"/>
     </row>
-    <row r="30" spans="1:96" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="52">
+    <row r="30" spans="1:96" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="51">
         <v>4</v>
       </c>
-      <c r="B30" s="52" t="s">
+      <c r="B30" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="67"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="59"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="58"/>
       <c r="F30" s="42"/>
       <c r="G30" s="42"/>
       <c r="H30" s="42"/>
@@ -5988,7 +5994,7 @@
       <c r="CQ30" s="42"/>
       <c r="CR30" s="42"/>
     </row>
-    <row r="31" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A31" s="42">
         <v>4.01</v>
       </c>
@@ -5998,8 +6004,8 @@
       <c r="C31" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="D31" s="53"/>
-      <c r="E31" s="54"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="53"/>
       <c r="F31" s="42"/>
       <c r="G31" s="42"/>
       <c r="H31" s="42"/>
@@ -6024,20 +6030,21 @@
       <c r="AA31" s="42"/>
       <c r="AB31" s="42"/>
       <c r="AC31" s="42"/>
-      <c r="AD31" s="51"/>
+      <c r="AD31" s="42"/>
       <c r="AE31" s="42"/>
       <c r="AF31" s="42"/>
-      <c r="AG31" s="51"/>
-      <c r="AH31" s="51"/>
+      <c r="AG31" s="42"/>
+      <c r="AH31" s="42"/>
+      <c r="AI31" s="42"/>
       <c r="AJ31" s="42"/>
       <c r="AK31" s="42"/>
       <c r="AL31" s="42"/>
       <c r="AM31" s="42"/>
       <c r="AN31" s="42"/>
       <c r="AO31" s="42"/>
-      <c r="AP31" s="42"/>
-      <c r="AQ31" s="42"/>
-      <c r="AR31" s="42"/>
+      <c r="AP31" s="92"/>
+      <c r="AQ31" s="92"/>
+      <c r="AR31" s="92"/>
       <c r="AS31" s="42"/>
       <c r="AT31" s="42"/>
       <c r="AU31" s="42"/>
@@ -6091,7 +6098,7 @@
       <c r="CQ31" s="42"/>
       <c r="CR31" s="42"/>
     </row>
-    <row r="32" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A32" s="42">
         <v>4.0199999999999996</v>
       </c>
@@ -6101,8 +6108,8 @@
       <c r="C32" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="D32" s="53"/>
-      <c r="E32" s="54"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="53"/>
       <c r="F32" s="42"/>
       <c r="G32" s="42"/>
       <c r="H32" s="42"/>
@@ -6127,20 +6134,21 @@
       <c r="AA32" s="42"/>
       <c r="AB32" s="42"/>
       <c r="AC32" s="42"/>
-      <c r="AD32" s="51"/>
+      <c r="AD32" s="42"/>
       <c r="AE32" s="42"/>
       <c r="AF32" s="42"/>
-      <c r="AG32" s="51"/>
-      <c r="AH32" s="51"/>
+      <c r="AG32" s="42"/>
+      <c r="AH32" s="42"/>
+      <c r="AI32" s="42"/>
       <c r="AJ32" s="42"/>
       <c r="AK32" s="42"/>
       <c r="AL32" s="42"/>
       <c r="AM32" s="42"/>
       <c r="AN32" s="42"/>
       <c r="AO32" s="42"/>
-      <c r="AP32" s="42"/>
-      <c r="AQ32" s="42"/>
-      <c r="AR32" s="42"/>
+      <c r="AP32" s="92"/>
+      <c r="AQ32" s="92"/>
+      <c r="AR32" s="92"/>
       <c r="AS32" s="42"/>
       <c r="AT32" s="42"/>
       <c r="AU32" s="42"/>
@@ -6194,7 +6202,7 @@
       <c r="CQ32" s="42"/>
       <c r="CR32" s="42"/>
     </row>
-    <row r="33" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A33" s="42">
         <v>4.03</v>
       </c>
@@ -6204,8 +6212,8 @@
       <c r="C33" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="D33" s="53"/>
-      <c r="E33" s="54"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="53"/>
       <c r="F33" s="42"/>
       <c r="G33" s="42"/>
       <c r="H33" s="42"/>
@@ -6230,20 +6238,21 @@
       <c r="AA33" s="42"/>
       <c r="AB33" s="42"/>
       <c r="AC33" s="42"/>
-      <c r="AD33" s="51"/>
+      <c r="AD33" s="42"/>
       <c r="AE33" s="42"/>
       <c r="AF33" s="42"/>
-      <c r="AG33" s="51"/>
-      <c r="AH33" s="51"/>
+      <c r="AG33" s="42"/>
+      <c r="AH33" s="42"/>
+      <c r="AI33" s="42"/>
       <c r="AJ33" s="42"/>
       <c r="AK33" s="42"/>
       <c r="AL33" s="42"/>
       <c r="AM33" s="42"/>
       <c r="AN33" s="42"/>
       <c r="AO33" s="42"/>
-      <c r="AP33" s="42"/>
-      <c r="AQ33" s="42"/>
-      <c r="AR33" s="42"/>
+      <c r="AP33" s="92"/>
+      <c r="AQ33" s="92"/>
+      <c r="AR33" s="92"/>
       <c r="AS33" s="42"/>
       <c r="AT33" s="42"/>
       <c r="AU33" s="42"/>
@@ -6297,16 +6306,16 @@
       <c r="CQ33" s="42"/>
       <c r="CR33" s="42"/>
     </row>
-    <row r="34" spans="1:96" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="52">
+    <row r="34" spans="1:96" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="51">
         <v>5</v>
       </c>
-      <c r="B34" s="52" t="s">
+      <c r="B34" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="67"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="59"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="58"/>
       <c r="F34" s="42"/>
       <c r="G34" s="42"/>
       <c r="H34" s="42"/>
@@ -6399,7 +6408,7 @@
       <c r="CQ34" s="42"/>
       <c r="CR34" s="42"/>
     </row>
-    <row r="35" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A35" s="42">
         <v>5.01</v>
       </c>
@@ -6409,8 +6418,8 @@
       <c r="C35" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="D35" s="53"/>
-      <c r="E35" s="54"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="53"/>
       <c r="F35" s="42"/>
       <c r="G35" s="42"/>
       <c r="H35" s="42"/>
@@ -6435,10 +6444,6 @@
       <c r="AA35" s="42"/>
       <c r="AB35" s="42"/>
       <c r="AC35" s="42"/>
-      <c r="AE35" s="42"/>
-      <c r="AF35" s="42"/>
-      <c r="AG35" s="51"/>
-      <c r="AH35" s="51"/>
       <c r="AI35" s="42"/>
       <c r="AJ35" s="42"/>
       <c r="AK35" s="42"/>
@@ -6451,8 +6456,8 @@
       <c r="AR35" s="42"/>
       <c r="AS35" s="42"/>
       <c r="AT35" s="42"/>
-      <c r="AU35" s="42"/>
-      <c r="AV35" s="42"/>
+      <c r="AU35" s="92"/>
+      <c r="AV35" s="92"/>
       <c r="AW35" s="42"/>
       <c r="AX35" s="42"/>
       <c r="AY35" s="42"/>
@@ -6502,7 +6507,7 @@
       <c r="CQ35" s="42"/>
       <c r="CR35" s="42"/>
     </row>
-    <row r="36" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A36" s="42">
         <v>5.0199999999999996</v>
       </c>
@@ -6512,8 +6517,8 @@
       <c r="C36" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="D36" s="53"/>
-      <c r="E36" s="54"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="53"/>
       <c r="F36" s="42"/>
       <c r="G36" s="42"/>
       <c r="H36" s="42"/>
@@ -6541,8 +6546,8 @@
       <c r="AD36" s="42"/>
       <c r="AE36" s="42"/>
       <c r="AF36" s="42"/>
-      <c r="AG36" s="51"/>
-      <c r="AH36" s="51"/>
+      <c r="AG36" s="42"/>
+      <c r="AH36" s="42"/>
       <c r="AI36" s="42"/>
       <c r="AJ36" s="42"/>
       <c r="AK36" s="42"/>
@@ -6555,8 +6560,8 @@
       <c r="AR36" s="42"/>
       <c r="AS36" s="42"/>
       <c r="AT36" s="42"/>
-      <c r="AU36" s="42"/>
-      <c r="AV36" s="42"/>
+      <c r="AU36" s="92"/>
+      <c r="AV36" s="92"/>
       <c r="AW36" s="42"/>
       <c r="AX36" s="42"/>
       <c r="AY36" s="42"/>
@@ -6606,7 +6611,7 @@
       <c r="CQ36" s="42"/>
       <c r="CR36" s="42"/>
     </row>
-    <row r="37" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A37" s="42">
         <v>5.03</v>
       </c>
@@ -6616,8 +6621,8 @@
       <c r="C37" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="D37" s="53"/>
-      <c r="E37" s="54"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="53"/>
       <c r="F37" s="42"/>
       <c r="G37" s="42"/>
       <c r="H37" s="42"/>
@@ -6645,8 +6650,8 @@
       <c r="AD37" s="42"/>
       <c r="AE37" s="42"/>
       <c r="AF37" s="42"/>
-      <c r="AG37" s="51"/>
-      <c r="AH37" s="51"/>
+      <c r="AG37" s="42"/>
+      <c r="AH37" s="42"/>
       <c r="AI37" s="42"/>
       <c r="AJ37" s="42"/>
       <c r="AK37" s="42"/>
@@ -6659,8 +6664,8 @@
       <c r="AR37" s="42"/>
       <c r="AS37" s="42"/>
       <c r="AT37" s="42"/>
-      <c r="AU37" s="42"/>
-      <c r="AV37" s="42"/>
+      <c r="AU37" s="92"/>
+      <c r="AV37" s="92"/>
       <c r="AW37" s="42"/>
       <c r="AX37" s="42"/>
       <c r="AY37" s="42"/>
@@ -6710,19 +6715,19 @@
       <c r="CQ37" s="42"/>
       <c r="CR37" s="42"/>
     </row>
-    <row r="38" spans="1:96" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:96" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="49" t="s">
         <v>187</v>
       </c>
       <c r="B38" s="50" t="s">
         <v>201</v>
       </c>
-      <c r="C38" s="66"/>
-      <c r="D38" s="85">
-        <v>44013</v>
-      </c>
-      <c r="E38" s="85">
-        <v>44043</v>
+      <c r="C38" s="65"/>
+      <c r="D38" s="84">
+        <v>44020</v>
+      </c>
+      <c r="E38" s="84">
+        <v>44050</v>
       </c>
       <c r="F38" s="42"/>
       <c r="G38" s="42"/>
@@ -6816,16 +6821,16 @@
       <c r="CQ38" s="42"/>
       <c r="CR38" s="42"/>
     </row>
-    <row r="39" spans="1:96" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="52">
+    <row r="39" spans="1:96" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="51">
         <v>6</v>
       </c>
-      <c r="B39" s="52" t="s">
+      <c r="B39" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="C39" s="67"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="59"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="58"/>
       <c r="F39" s="42"/>
       <c r="G39" s="42"/>
       <c r="H39" s="42"/>
@@ -6918,7 +6923,7 @@
       <c r="CQ39" s="42"/>
       <c r="CR39" s="42"/>
     </row>
-    <row r="40" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A40" s="42">
         <v>6.01</v>
       </c>
@@ -6928,8 +6933,8 @@
       <c r="C40" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="D40" s="53"/>
-      <c r="E40" s="54"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="53"/>
       <c r="F40" s="42"/>
       <c r="G40" s="42"/>
       <c r="H40" s="42"/>
@@ -6959,14 +6964,14 @@
       <c r="AF40" s="42"/>
       <c r="AG40" s="42"/>
       <c r="AH40" s="42"/>
-      <c r="AI40" s="88"/>
+      <c r="AI40" s="42"/>
       <c r="AJ40" s="42"/>
       <c r="AK40" s="42"/>
       <c r="AL40" s="42"/>
       <c r="AM40" s="42"/>
       <c r="AN40" s="42"/>
       <c r="AO40" s="42"/>
-      <c r="AP40" s="42"/>
+      <c r="AP40" s="87"/>
       <c r="AQ40" s="42"/>
       <c r="AR40" s="42"/>
       <c r="AS40" s="42"/>
@@ -7022,16 +7027,16 @@
       <c r="CQ40" s="42"/>
       <c r="CR40" s="42"/>
     </row>
-    <row r="41" spans="1:96" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="52">
+    <row r="41" spans="1:96" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="51">
         <v>7</v>
       </c>
-      <c r="B41" s="52" t="s">
+      <c r="B41" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="C41" s="67"/>
-      <c r="D41" s="61"/>
-      <c r="E41" s="59"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="58"/>
       <c r="F41" s="42"/>
       <c r="G41" s="42"/>
       <c r="H41" s="42"/>
@@ -7124,7 +7129,7 @@
       <c r="CQ41" s="42"/>
       <c r="CR41" s="42"/>
     </row>
-    <row r="42" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A42" s="42">
         <v>7.01</v>
       </c>
@@ -7134,8 +7139,8 @@
       <c r="C42" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="D42" s="53"/>
-      <c r="E42" s="54"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="53"/>
       <c r="F42" s="42"/>
       <c r="G42" s="42"/>
       <c r="H42" s="42"/>
@@ -7166,13 +7171,13 @@
       <c r="AG42" s="42"/>
       <c r="AH42" s="42"/>
       <c r="AI42" s="42"/>
-      <c r="AJ42" s="88"/>
+      <c r="AJ42" s="42"/>
       <c r="AK42" s="42"/>
       <c r="AL42" s="42"/>
       <c r="AM42" s="42"/>
       <c r="AN42" s="42"/>
       <c r="AO42" s="42"/>
-      <c r="AP42" s="42"/>
+      <c r="AP42" s="87"/>
       <c r="AQ42" s="42"/>
       <c r="AR42" s="42"/>
       <c r="AS42" s="42"/>
@@ -7228,7 +7233,7 @@
       <c r="CQ42" s="42"/>
       <c r="CR42" s="42"/>
     </row>
-    <row r="43" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A43" s="42">
         <v>7.02</v>
       </c>
@@ -7238,8 +7243,8 @@
       <c r="C43" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="D43" s="53"/>
-      <c r="E43" s="54"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="53"/>
       <c r="F43" s="42"/>
       <c r="G43" s="42"/>
       <c r="H43" s="42"/>
@@ -7271,19 +7276,19 @@
       <c r="AH43" s="42"/>
       <c r="AI43" s="42"/>
       <c r="AJ43" s="42"/>
-      <c r="AK43" s="88"/>
+      <c r="AK43" s="42"/>
       <c r="AL43" s="42"/>
       <c r="AM43" s="42"/>
-      <c r="AN43" s="88"/>
-      <c r="AO43" s="88"/>
-      <c r="AP43" s="88"/>
-      <c r="AQ43" s="88"/>
-      <c r="AR43" s="88"/>
+      <c r="AN43" s="42"/>
+      <c r="AO43" s="42"/>
+      <c r="AP43" s="87"/>
+      <c r="AQ43" s="87"/>
+      <c r="AR43" s="87"/>
       <c r="AS43" s="42"/>
       <c r="AT43" s="42"/>
-      <c r="AU43" s="42"/>
-      <c r="AV43" s="42"/>
-      <c r="AW43" s="42"/>
+      <c r="AU43" s="87"/>
+      <c r="AV43" s="87"/>
+      <c r="AW43" s="87"/>
       <c r="AX43" s="42"/>
       <c r="AY43" s="42"/>
       <c r="AZ43" s="42"/>
@@ -7332,7 +7337,7 @@
       <c r="CQ43" s="42"/>
       <c r="CR43" s="42"/>
     </row>
-    <row r="44" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A44" s="42">
         <v>7.03</v>
       </c>
@@ -7342,8 +7347,8 @@
       <c r="C44" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="D44" s="53"/>
-      <c r="E44" s="54"/>
+      <c r="D44" s="52"/>
+      <c r="E44" s="53"/>
       <c r="F44" s="42"/>
       <c r="G44" s="42"/>
       <c r="H44" s="42"/>
@@ -7375,19 +7380,19 @@
       <c r="AH44" s="42"/>
       <c r="AI44" s="42"/>
       <c r="AJ44" s="42"/>
-      <c r="AK44" s="88"/>
+      <c r="AK44" s="42"/>
       <c r="AL44" s="42"/>
       <c r="AM44" s="42"/>
-      <c r="AN44" s="88"/>
-      <c r="AO44" s="88"/>
-      <c r="AP44" s="88"/>
-      <c r="AQ44" s="88"/>
-      <c r="AR44" s="88"/>
+      <c r="AN44" s="42"/>
+      <c r="AO44" s="42"/>
+      <c r="AP44" s="42"/>
+      <c r="AQ44" s="42"/>
+      <c r="AR44" s="42"/>
       <c r="AS44" s="42"/>
       <c r="AT44" s="42"/>
       <c r="AU44" s="42"/>
       <c r="AV44" s="42"/>
-      <c r="AW44" s="42"/>
+      <c r="AW44" s="87"/>
       <c r="AX44" s="42"/>
       <c r="AY44" s="42"/>
       <c r="AZ44" s="42"/>
@@ -7436,7 +7441,7 @@
       <c r="CQ44" s="42"/>
       <c r="CR44" s="42"/>
     </row>
-    <row r="45" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A45" s="42">
         <v>7.04</v>
       </c>
@@ -7446,8 +7451,8 @@
       <c r="C45" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="D45" s="53"/>
-      <c r="E45" s="54"/>
+      <c r="D45" s="52"/>
+      <c r="E45" s="53"/>
       <c r="F45" s="42"/>
       <c r="G45" s="42"/>
       <c r="H45" s="42"/>
@@ -7489,10 +7494,10 @@
       <c r="AR45" s="42"/>
       <c r="AS45" s="42"/>
       <c r="AT45" s="42"/>
-      <c r="AU45" s="88"/>
+      <c r="AU45" s="87"/>
       <c r="AV45" s="42"/>
       <c r="AW45" s="42"/>
-      <c r="AX45" s="42"/>
+      <c r="AX45" s="87"/>
       <c r="AY45" s="42"/>
       <c r="AZ45" s="42"/>
       <c r="BA45" s="42"/>
@@ -7540,7 +7545,7 @@
       <c r="CQ45" s="42"/>
       <c r="CR45" s="42"/>
     </row>
-    <row r="46" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A46" s="42">
         <v>7.05</v>
       </c>
@@ -7550,8 +7555,8 @@
       <c r="C46" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="D46" s="53"/>
-      <c r="E46" s="54"/>
+      <c r="D46" s="52"/>
+      <c r="E46" s="53"/>
       <c r="F46" s="42"/>
       <c r="G46" s="42"/>
       <c r="H46" s="42"/>
@@ -7593,15 +7598,15 @@
       <c r="AR46" s="42"/>
       <c r="AS46" s="42"/>
       <c r="AT46" s="42"/>
-      <c r="AU46" s="88"/>
-      <c r="AV46" s="88"/>
-      <c r="AW46" s="88"/>
+      <c r="AU46" s="42"/>
+      <c r="AV46" s="42"/>
+      <c r="AW46" s="42"/>
       <c r="AX46" s="42"/>
-      <c r="AY46" s="42"/>
+      <c r="AY46" s="87"/>
       <c r="AZ46" s="42"/>
       <c r="BA46" s="42"/>
-      <c r="BB46" s="42"/>
-      <c r="BC46" s="42"/>
+      <c r="BB46" s="87"/>
+      <c r="BC46" s="87"/>
       <c r="BD46" s="42"/>
       <c r="BE46" s="42"/>
       <c r="BF46" s="42"/>
@@ -7644,7 +7649,7 @@
       <c r="CQ46" s="42"/>
       <c r="CR46" s="42"/>
     </row>
-    <row r="47" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A47" s="42">
         <v>7.06</v>
       </c>
@@ -7654,8 +7659,8 @@
       <c r="C47" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="D47" s="53"/>
-      <c r="E47" s="54"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="53"/>
       <c r="F47" s="42"/>
       <c r="G47" s="42"/>
       <c r="H47" s="42"/>
@@ -7697,16 +7702,16 @@
       <c r="AR47" s="42"/>
       <c r="AS47" s="42"/>
       <c r="AT47" s="42"/>
-      <c r="AU47" s="88"/>
-      <c r="AV47" s="88"/>
-      <c r="AW47" s="88"/>
-      <c r="AX47" s="88"/>
-      <c r="AY47" s="88"/>
+      <c r="AU47" s="42"/>
+      <c r="AV47" s="42"/>
+      <c r="AW47" s="42"/>
+      <c r="AX47" s="42"/>
+      <c r="AY47" s="87"/>
       <c r="AZ47" s="42"/>
       <c r="BA47" s="42"/>
       <c r="BB47" s="42"/>
-      <c r="BC47" s="42"/>
-      <c r="BD47" s="42"/>
+      <c r="BC47" s="87"/>
+      <c r="BD47" s="87"/>
       <c r="BE47" s="42"/>
       <c r="BF47" s="42"/>
       <c r="BG47" s="42"/>
@@ -7748,16 +7753,16 @@
       <c r="CQ47" s="42"/>
       <c r="CR47" s="42"/>
     </row>
-    <row r="48" spans="1:96" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="52">
+    <row r="48" spans="1:96" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="51">
         <v>8</v>
       </c>
-      <c r="B48" s="52" t="s">
+      <c r="B48" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="C48" s="67"/>
-      <c r="D48" s="61"/>
-      <c r="E48" s="59"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="58"/>
       <c r="F48" s="42"/>
       <c r="G48" s="42"/>
       <c r="H48" s="42"/>
@@ -7803,7 +7808,7 @@
       <c r="AV48" s="42"/>
       <c r="AW48" s="42"/>
       <c r="AX48" s="42"/>
-      <c r="AY48" s="88"/>
+      <c r="AY48" s="42"/>
       <c r="AZ48" s="42"/>
       <c r="BA48" s="42"/>
       <c r="BB48" s="42"/>
@@ -7850,7 +7855,7 @@
       <c r="CQ48" s="42"/>
       <c r="CR48" s="42"/>
     </row>
-    <row r="49" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A49" s="42">
         <v>8.01</v>
       </c>
@@ -7860,8 +7865,8 @@
       <c r="C49" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="D49" s="53"/>
-      <c r="E49" s="54"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="53"/>
       <c r="F49" s="42"/>
       <c r="G49" s="42"/>
       <c r="H49" s="42"/>
@@ -7910,9 +7915,9 @@
       <c r="AY49" s="42"/>
       <c r="AZ49" s="42"/>
       <c r="BA49" s="42"/>
-      <c r="BB49" s="88"/>
+      <c r="BB49" s="42"/>
       <c r="BC49" s="42"/>
-      <c r="BD49" s="42"/>
+      <c r="BD49" s="87"/>
       <c r="BE49" s="42"/>
       <c r="BF49" s="42"/>
       <c r="BG49" s="42"/>
@@ -7954,7 +7959,7 @@
       <c r="CQ49" s="42"/>
       <c r="CR49" s="42"/>
     </row>
-    <row r="50" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A50" s="42">
         <v>8.02</v>
       </c>
@@ -7964,8 +7969,8 @@
       <c r="C50" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="D50" s="53"/>
-      <c r="E50" s="54"/>
+      <c r="D50" s="52"/>
+      <c r="E50" s="53"/>
       <c r="F50" s="42"/>
       <c r="G50" s="42"/>
       <c r="H50" s="42"/>
@@ -8014,10 +8019,10 @@
       <c r="AY50" s="42"/>
       <c r="AZ50" s="42"/>
       <c r="BA50" s="42"/>
-      <c r="BB50" s="88"/>
-      <c r="BC50" s="88"/>
-      <c r="BD50" s="42"/>
-      <c r="BE50" s="42"/>
+      <c r="BB50" s="42"/>
+      <c r="BC50" s="42"/>
+      <c r="BD50" s="87"/>
+      <c r="BE50" s="87"/>
       <c r="BF50" s="42"/>
       <c r="BG50" s="42"/>
       <c r="BH50" s="42"/>
@@ -8058,7 +8063,7 @@
       <c r="CQ50" s="42"/>
       <c r="CR50" s="42"/>
     </row>
-    <row r="51" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A51" s="42">
         <v>8.0299999999999994</v>
       </c>
@@ -8068,8 +8073,8 @@
       <c r="C51" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="D51" s="53"/>
-      <c r="E51" s="54"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="53"/>
       <c r="F51" s="42"/>
       <c r="G51" s="42"/>
       <c r="H51" s="42"/>
@@ -8118,10 +8123,10 @@
       <c r="AY51" s="42"/>
       <c r="AZ51" s="42"/>
       <c r="BA51" s="42"/>
-      <c r="BB51" s="88"/>
-      <c r="BC51" s="88"/>
-      <c r="BD51" s="42"/>
-      <c r="BE51" s="42"/>
+      <c r="BB51" s="42"/>
+      <c r="BC51" s="42"/>
+      <c r="BD51" s="87"/>
+      <c r="BE51" s="87"/>
       <c r="BF51" s="42"/>
       <c r="BG51" s="42"/>
       <c r="BH51" s="42"/>
@@ -8162,7 +8167,7 @@
       <c r="CQ51" s="42"/>
       <c r="CR51" s="42"/>
     </row>
-    <row r="52" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A52" s="42">
         <v>8.0399999999999991</v>
       </c>
@@ -8172,8 +8177,8 @@
       <c r="C52" s="38" t="s">
         <v>203</v>
       </c>
-      <c r="D52" s="53"/>
-      <c r="E52" s="54"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="53"/>
       <c r="F52" s="42"/>
       <c r="G52" s="42"/>
       <c r="H52" s="42"/>
@@ -8222,14 +8227,14 @@
       <c r="AY52" s="42"/>
       <c r="AZ52" s="42"/>
       <c r="BA52" s="42"/>
-      <c r="BB52" s="88"/>
-      <c r="BC52" s="88"/>
-      <c r="BD52" s="88"/>
-      <c r="BE52" s="88"/>
-      <c r="BF52" s="42"/>
+      <c r="BB52" s="42"/>
+      <c r="BC52" s="42"/>
+      <c r="BD52" s="87"/>
+      <c r="BE52" s="87"/>
+      <c r="BF52" s="87"/>
       <c r="BG52" s="42"/>
       <c r="BH52" s="42"/>
-      <c r="BI52" s="42"/>
+      <c r="BI52" s="87"/>
       <c r="BJ52" s="42"/>
       <c r="BK52" s="42"/>
       <c r="BL52" s="42"/>
@@ -8266,7 +8271,7 @@
       <c r="CQ52" s="42"/>
       <c r="CR52" s="42"/>
     </row>
-    <row r="53" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A53" s="42">
         <v>8.0500000000000007</v>
       </c>
@@ -8276,8 +8281,8 @@
       <c r="C53" s="38" t="s">
         <v>221</v>
       </c>
-      <c r="D53" s="53"/>
-      <c r="E53" s="54"/>
+      <c r="D53" s="52"/>
+      <c r="E53" s="53"/>
       <c r="F53" s="42"/>
       <c r="G53" s="42"/>
       <c r="H53" s="42"/>
@@ -8329,11 +8334,11 @@
       <c r="BB53" s="42"/>
       <c r="BC53" s="42"/>
       <c r="BD53" s="42"/>
-      <c r="BE53" s="88"/>
+      <c r="BE53" s="42"/>
       <c r="BF53" s="42"/>
       <c r="BG53" s="42"/>
       <c r="BH53" s="42"/>
-      <c r="BI53" s="42"/>
+      <c r="BI53" s="87"/>
       <c r="BJ53" s="42"/>
       <c r="BK53" s="42"/>
       <c r="BL53" s="42"/>
@@ -8370,18 +8375,18 @@
       <c r="CQ53" s="42"/>
       <c r="CR53" s="42"/>
     </row>
-    <row r="54" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A54" s="42">
         <v>8.06</v>
       </c>
-      <c r="B54" s="56" t="s">
+      <c r="B54" s="55" t="s">
         <v>71</v>
       </c>
       <c r="C54" s="38" t="s">
         <v>221</v>
       </c>
-      <c r="D54" s="53"/>
-      <c r="E54" s="54"/>
+      <c r="D54" s="52"/>
+      <c r="E54" s="53"/>
       <c r="F54" s="42"/>
       <c r="G54" s="42"/>
       <c r="H54" s="42"/>
@@ -8433,12 +8438,12 @@
       <c r="BB54" s="42"/>
       <c r="BC54" s="42"/>
       <c r="BD54" s="42"/>
-      <c r="BE54" s="88"/>
-      <c r="BF54" s="88"/>
+      <c r="BE54" s="42"/>
+      <c r="BF54" s="42"/>
       <c r="BG54" s="42"/>
       <c r="BH54" s="42"/>
-      <c r="BI54" s="42"/>
-      <c r="BJ54" s="42"/>
+      <c r="BI54" s="87"/>
+      <c r="BJ54" s="87"/>
       <c r="BK54" s="42"/>
       <c r="BL54" s="42"/>
       <c r="BM54" s="42"/>
@@ -8474,16 +8479,16 @@
       <c r="CQ54" s="42"/>
       <c r="CR54" s="42"/>
     </row>
-    <row r="55" spans="1:96" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="52">
+    <row r="55" spans="1:96" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="51">
         <v>9</v>
       </c>
-      <c r="B55" s="52" t="s">
+      <c r="B55" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="C55" s="67"/>
-      <c r="D55" s="61"/>
-      <c r="E55" s="59"/>
+      <c r="C55" s="66"/>
+      <c r="D55" s="60"/>
+      <c r="E55" s="58"/>
       <c r="F55" s="42"/>
       <c r="G55" s="42"/>
       <c r="H55" s="42"/>
@@ -8576,7 +8581,7 @@
       <c r="CQ55" s="42"/>
       <c r="CR55" s="42"/>
     </row>
-    <row r="56" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A56" s="42">
         <v>9.01</v>
       </c>
@@ -8586,8 +8591,8 @@
       <c r="C56" s="38" t="s">
         <v>195</v>
       </c>
-      <c r="D56" s="53"/>
-      <c r="E56" s="54"/>
+      <c r="D56" s="52"/>
+      <c r="E56" s="53"/>
       <c r="F56" s="42"/>
       <c r="G56" s="42"/>
       <c r="H56" s="42"/>
@@ -8643,10 +8648,10 @@
       <c r="BF56" s="42"/>
       <c r="BG56" s="42"/>
       <c r="BH56" s="42"/>
-      <c r="BI56" s="88"/>
-      <c r="BJ56" s="88"/>
-      <c r="BK56" s="42"/>
-      <c r="BL56" s="42"/>
+      <c r="BI56" s="42"/>
+      <c r="BJ56" s="42"/>
+      <c r="BK56" s="87"/>
+      <c r="BL56" s="87"/>
       <c r="BM56" s="42"/>
       <c r="BN56" s="42"/>
       <c r="BO56" s="42"/>
@@ -8680,7 +8685,7 @@
       <c r="CQ56" s="42"/>
       <c r="CR56" s="42"/>
     </row>
-    <row r="57" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A57" s="42">
         <v>9.02</v>
       </c>
@@ -8690,8 +8695,8 @@
       <c r="C57" s="38" t="s">
         <v>195</v>
       </c>
-      <c r="D57" s="53"/>
-      <c r="E57" s="54"/>
+      <c r="D57" s="52"/>
+      <c r="E57" s="53"/>
       <c r="F57" s="42"/>
       <c r="G57" s="42"/>
       <c r="H57" s="42"/>
@@ -8747,10 +8752,10 @@
       <c r="BF57" s="42"/>
       <c r="BG57" s="42"/>
       <c r="BH57" s="42"/>
-      <c r="BI57" s="88"/>
-      <c r="BJ57" s="88"/>
-      <c r="BK57" s="42"/>
-      <c r="BL57" s="42"/>
+      <c r="BI57" s="42"/>
+      <c r="BJ57" s="42"/>
+      <c r="BK57" s="87"/>
+      <c r="BL57" s="87"/>
       <c r="BM57" s="42"/>
       <c r="BN57" s="42"/>
       <c r="BO57" s="42"/>
@@ -8784,7 +8789,7 @@
       <c r="CQ57" s="42"/>
       <c r="CR57" s="42"/>
     </row>
-    <row r="58" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A58" s="42">
         <v>9.0299999999999994</v>
       </c>
@@ -8794,8 +8799,8 @@
       <c r="C58" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="D58" s="53"/>
-      <c r="E58" s="54"/>
+      <c r="D58" s="52"/>
+      <c r="E58" s="53"/>
       <c r="F58" s="42"/>
       <c r="G58" s="42"/>
       <c r="H58" s="42"/>
@@ -8852,16 +8857,16 @@
       <c r="BG58" s="42"/>
       <c r="BH58" s="42"/>
       <c r="BI58" s="42"/>
-      <c r="BJ58" s="88"/>
-      <c r="BK58" s="88"/>
-      <c r="BL58" s="88"/>
-      <c r="BM58" s="88"/>
+      <c r="BJ58" s="42"/>
+      <c r="BK58" s="42"/>
+      <c r="BL58" s="87"/>
+      <c r="BM58" s="87"/>
       <c r="BN58" s="42"/>
       <c r="BO58" s="42"/>
-      <c r="BP58" s="42"/>
-      <c r="BQ58" s="42"/>
-      <c r="BR58" s="42"/>
-      <c r="BS58" s="42"/>
+      <c r="BP58" s="87"/>
+      <c r="BQ58" s="87"/>
+      <c r="BR58" s="87"/>
+      <c r="BS58" s="87"/>
       <c r="BT58" s="42"/>
       <c r="BU58" s="42"/>
       <c r="BV58" s="42"/>
@@ -8888,7 +8893,7 @@
       <c r="CQ58" s="42"/>
       <c r="CR58" s="42"/>
     </row>
-    <row r="59" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A59" s="42">
         <v>9.0399999999999991</v>
       </c>
@@ -8898,8 +8903,8 @@
       <c r="C59" s="38" t="s">
         <v>195</v>
       </c>
-      <c r="D59" s="53"/>
-      <c r="E59" s="54"/>
+      <c r="D59" s="52"/>
+      <c r="E59" s="53"/>
       <c r="F59" s="42"/>
       <c r="G59" s="42"/>
       <c r="H59" s="42"/>
@@ -8956,16 +8961,16 @@
       <c r="BG59" s="42"/>
       <c r="BH59" s="42"/>
       <c r="BI59" s="42"/>
-      <c r="BJ59" s="88"/>
-      <c r="BK59" s="88"/>
-      <c r="BL59" s="88"/>
-      <c r="BM59" s="88"/>
+      <c r="BJ59" s="42"/>
+      <c r="BK59" s="42"/>
+      <c r="BL59" s="87"/>
+      <c r="BM59" s="87"/>
       <c r="BN59" s="42"/>
       <c r="BO59" s="42"/>
-      <c r="BP59" s="42"/>
-      <c r="BQ59" s="42"/>
-      <c r="BR59" s="42"/>
-      <c r="BS59" s="42"/>
+      <c r="BP59" s="87"/>
+      <c r="BQ59" s="87"/>
+      <c r="BR59" s="87"/>
+      <c r="BS59" s="87"/>
       <c r="BT59" s="42"/>
       <c r="BU59" s="42"/>
       <c r="BV59" s="42"/>
@@ -8992,7 +8997,7 @@
       <c r="CQ59" s="42"/>
       <c r="CR59" s="42"/>
     </row>
-    <row r="60" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A60" s="42">
         <v>9.0500000000000007</v>
       </c>
@@ -9002,8 +9007,8 @@
       <c r="C60" s="38" t="s">
         <v>195</v>
       </c>
-      <c r="D60" s="53"/>
-      <c r="E60" s="54"/>
+      <c r="D60" s="52"/>
+      <c r="E60" s="53"/>
       <c r="F60" s="42"/>
       <c r="G60" s="42"/>
       <c r="H60" s="42"/>
@@ -9060,17 +9065,17 @@
       <c r="BG60" s="42"/>
       <c r="BH60" s="42"/>
       <c r="BI60" s="42"/>
-      <c r="BJ60" s="88"/>
-      <c r="BK60" s="88"/>
-      <c r="BL60" s="88"/>
-      <c r="BM60" s="88"/>
+      <c r="BJ60" s="42"/>
+      <c r="BK60" s="42"/>
+      <c r="BL60" s="87"/>
+      <c r="BM60" s="87"/>
       <c r="BN60" s="42"/>
       <c r="BO60" s="42"/>
-      <c r="BP60" s="42"/>
-      <c r="BQ60" s="42"/>
-      <c r="BR60" s="42"/>
-      <c r="BS60" s="42"/>
-      <c r="BT60" s="42"/>
+      <c r="BP60" s="87"/>
+      <c r="BQ60" s="87"/>
+      <c r="BR60" s="87"/>
+      <c r="BS60" s="87"/>
+      <c r="BT60" s="87"/>
       <c r="BU60" s="42"/>
       <c r="BV60" s="42"/>
       <c r="BW60" s="42"/>
@@ -9096,18 +9101,18 @@
       <c r="CQ60" s="42"/>
       <c r="CR60" s="42"/>
     </row>
-    <row r="61" spans="1:96" ht="31.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:96" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="49" t="s">
         <v>189</v>
       </c>
       <c r="B61" s="50" t="s">
         <v>200</v>
       </c>
-      <c r="C61" s="66"/>
-      <c r="D61" s="85">
-        <v>44046</v>
-      </c>
-      <c r="E61" s="85">
+      <c r="C61" s="65"/>
+      <c r="D61" s="84">
+        <v>44053</v>
+      </c>
+      <c r="E61" s="84">
         <v>44074</v>
       </c>
       <c r="F61" s="42"/>
@@ -9202,16 +9207,16 @@
       <c r="CQ61" s="42"/>
       <c r="CR61" s="42"/>
     </row>
-    <row r="62" spans="1:96" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="52">
+    <row r="62" spans="1:96" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="51">
         <v>10</v>
       </c>
-      <c r="B62" s="52" t="s">
+      <c r="B62" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="C62" s="67"/>
-      <c r="D62" s="61"/>
-      <c r="E62" s="59"/>
+      <c r="C62" s="66"/>
+      <c r="D62" s="60"/>
+      <c r="E62" s="58"/>
       <c r="F62" s="42"/>
       <c r="G62" s="42"/>
       <c r="H62" s="42"/>
@@ -9304,7 +9309,7 @@
       <c r="CQ62" s="42"/>
       <c r="CR62" s="42"/>
     </row>
-    <row r="63" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A63" s="42">
         <v>10.01</v>
       </c>
@@ -9314,8 +9319,8 @@
       <c r="C63" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="D63" s="53"/>
-      <c r="E63" s="54"/>
+      <c r="D63" s="52"/>
+      <c r="E63" s="53"/>
       <c r="F63" s="42"/>
       <c r="G63" s="42"/>
       <c r="H63" s="42"/>
@@ -9378,14 +9383,14 @@
       <c r="BM63" s="42"/>
       <c r="BN63" s="42"/>
       <c r="BO63" s="42"/>
-      <c r="BP63" s="79"/>
+      <c r="BP63" s="42"/>
       <c r="BQ63" s="42"/>
       <c r="BR63" s="42"/>
       <c r="BS63" s="42"/>
       <c r="BT63" s="42"/>
       <c r="BU63" s="42"/>
       <c r="BV63" s="42"/>
-      <c r="BW63" s="42"/>
+      <c r="BW63" s="78"/>
       <c r="BX63" s="42"/>
       <c r="BY63" s="42"/>
       <c r="BZ63" s="42"/>
@@ -9408,7 +9413,7 @@
       <c r="CQ63" s="42"/>
       <c r="CR63" s="42"/>
     </row>
-    <row r="64" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A64" s="42">
         <v>10.02</v>
       </c>
@@ -9418,8 +9423,8 @@
       <c r="C64" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="D64" s="53"/>
-      <c r="E64" s="54"/>
+      <c r="D64" s="52"/>
+      <c r="E64" s="53"/>
       <c r="F64" s="42"/>
       <c r="G64" s="42"/>
       <c r="H64" s="42"/>
@@ -9482,15 +9487,15 @@
       <c r="BM64" s="42"/>
       <c r="BN64" s="42"/>
       <c r="BO64" s="42"/>
-      <c r="BP64" s="79"/>
-      <c r="BQ64" s="79"/>
+      <c r="BP64" s="42"/>
+      <c r="BQ64" s="42"/>
       <c r="BR64" s="42"/>
       <c r="BS64" s="42"/>
       <c r="BT64" s="42"/>
       <c r="BU64" s="42"/>
       <c r="BV64" s="42"/>
-      <c r="BW64" s="42"/>
-      <c r="BX64" s="42"/>
+      <c r="BW64" s="78"/>
+      <c r="BX64" s="78"/>
       <c r="BY64" s="42"/>
       <c r="BZ64" s="42"/>
       <c r="CA64" s="42"/>
@@ -9512,7 +9517,7 @@
       <c r="CQ64" s="42"/>
       <c r="CR64" s="42"/>
     </row>
-    <row r="65" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A65" s="42">
         <v>10.029999999999999</v>
       </c>
@@ -9522,8 +9527,8 @@
       <c r="C65" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="D65" s="53"/>
-      <c r="E65" s="54"/>
+      <c r="D65" s="52"/>
+      <c r="E65" s="53"/>
       <c r="F65" s="42"/>
       <c r="G65" s="42"/>
       <c r="H65" s="42"/>
@@ -9587,15 +9592,15 @@
       <c r="BN65" s="42"/>
       <c r="BO65" s="42"/>
       <c r="BP65" s="42"/>
-      <c r="BQ65" s="79"/>
-      <c r="BR65" s="79"/>
+      <c r="BQ65" s="42"/>
+      <c r="BR65" s="42"/>
       <c r="BS65" s="42"/>
       <c r="BT65" s="42"/>
       <c r="BU65" s="42"/>
       <c r="BV65" s="42"/>
       <c r="BW65" s="42"/>
-      <c r="BX65" s="42"/>
-      <c r="BY65" s="42"/>
+      <c r="BX65" s="78"/>
+      <c r="BY65" s="78"/>
       <c r="BZ65" s="42"/>
       <c r="CA65" s="42"/>
       <c r="CB65" s="42"/>
@@ -9616,7 +9621,7 @@
       <c r="CQ65" s="42"/>
       <c r="CR65" s="42"/>
     </row>
-    <row r="66" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A66" s="42">
         <v>10.039999999999999</v>
       </c>
@@ -9626,8 +9631,8 @@
       <c r="C66" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="D66" s="53"/>
-      <c r="E66" s="54"/>
+      <c r="D66" s="52"/>
+      <c r="E66" s="53"/>
       <c r="F66" s="42"/>
       <c r="G66" s="42"/>
       <c r="H66" s="42"/>
@@ -9692,15 +9697,15 @@
       <c r="BO66" s="42"/>
       <c r="BP66" s="42"/>
       <c r="BQ66" s="42"/>
-      <c r="BR66" s="79"/>
-      <c r="BS66" s="79"/>
+      <c r="BR66" s="42"/>
+      <c r="BS66" s="42"/>
       <c r="BT66" s="42"/>
       <c r="BU66" s="42"/>
       <c r="BV66" s="42"/>
       <c r="BW66" s="42"/>
       <c r="BX66" s="42"/>
-      <c r="BY66" s="42"/>
-      <c r="BZ66" s="42"/>
+      <c r="BY66" s="78"/>
+      <c r="BZ66" s="78"/>
       <c r="CA66" s="42"/>
       <c r="CB66" s="42"/>
       <c r="CC66" s="42"/>
@@ -9720,7 +9725,7 @@
       <c r="CQ66" s="42"/>
       <c r="CR66" s="42"/>
     </row>
-    <row r="67" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A67" s="42">
         <v>10.050000000000001</v>
       </c>
@@ -9730,8 +9735,8 @@
       <c r="C67" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="D67" s="53"/>
-      <c r="E67" s="54"/>
+      <c r="D67" s="52"/>
+      <c r="E67" s="53"/>
       <c r="F67" s="42"/>
       <c r="G67" s="42"/>
       <c r="H67" s="42"/>
@@ -9796,16 +9801,16 @@
       <c r="BO67" s="42"/>
       <c r="BP67" s="42"/>
       <c r="BQ67" s="42"/>
-      <c r="BR67" s="79"/>
-      <c r="BS67" s="79"/>
-      <c r="BT67" s="79"/>
+      <c r="BR67" s="42"/>
+      <c r="BS67" s="42"/>
+      <c r="BT67" s="42"/>
       <c r="BU67" s="42"/>
       <c r="BV67" s="42"/>
       <c r="BW67" s="42"/>
       <c r="BX67" s="42"/>
-      <c r="BY67" s="42"/>
-      <c r="BZ67" s="42"/>
-      <c r="CA67" s="42"/>
+      <c r="BY67" s="78"/>
+      <c r="BZ67" s="78"/>
+      <c r="CA67" s="78"/>
       <c r="CB67" s="42"/>
       <c r="CC67" s="42"/>
       <c r="CD67" s="42"/>
@@ -9824,16 +9829,16 @@
       <c r="CQ67" s="42"/>
       <c r="CR67" s="42"/>
     </row>
-    <row r="68" spans="1:96" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="52">
+    <row r="68" spans="1:96" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="51">
         <v>11</v>
       </c>
-      <c r="B68" s="52" t="s">
+      <c r="B68" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="C68" s="67"/>
-      <c r="D68" s="61"/>
-      <c r="E68" s="59"/>
+      <c r="C68" s="66"/>
+      <c r="D68" s="60"/>
+      <c r="E68" s="58"/>
       <c r="F68" s="42"/>
       <c r="G68" s="42"/>
       <c r="H68" s="42"/>
@@ -9926,7 +9931,7 @@
       <c r="CQ68" s="42"/>
       <c r="CR68" s="42"/>
     </row>
-    <row r="69" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A69" s="42">
         <v>11.01</v>
       </c>
@@ -9936,8 +9941,8 @@
       <c r="C69" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="D69" s="53"/>
-      <c r="E69" s="54"/>
+      <c r="D69" s="52"/>
+      <c r="E69" s="53"/>
       <c r="F69" s="42"/>
       <c r="G69" s="42"/>
       <c r="H69" s="42"/>
@@ -10007,16 +10012,16 @@
       <c r="BT69" s="42"/>
       <c r="BU69" s="42"/>
       <c r="BV69" s="42"/>
-      <c r="BW69" s="79"/>
-      <c r="BX69" s="79"/>
-      <c r="BY69" s="79"/>
+      <c r="BW69" s="42"/>
+      <c r="BX69" s="42"/>
+      <c r="BY69" s="42"/>
       <c r="BZ69" s="42"/>
       <c r="CA69" s="42"/>
       <c r="CB69" s="42"/>
       <c r="CC69" s="42"/>
-      <c r="CD69" s="42"/>
-      <c r="CE69" s="42"/>
-      <c r="CF69" s="42"/>
+      <c r="CD69" s="78"/>
+      <c r="CE69" s="78"/>
+      <c r="CF69" s="78"/>
       <c r="CG69" s="42"/>
       <c r="CH69" s="42"/>
       <c r="CI69" s="42"/>
@@ -10030,7 +10035,7 @@
       <c r="CQ69" s="42"/>
       <c r="CR69" s="42"/>
     </row>
-    <row r="70" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A70" s="42">
         <v>11.02</v>
       </c>
@@ -10040,8 +10045,8 @@
       <c r="C70" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="D70" s="53"/>
-      <c r="E70" s="54"/>
+      <c r="D70" s="52"/>
+      <c r="E70" s="53"/>
       <c r="F70" s="42"/>
       <c r="G70" s="42"/>
       <c r="H70" s="42"/>
@@ -10112,16 +10117,16 @@
       <c r="BU70" s="42"/>
       <c r="BV70" s="42"/>
       <c r="BW70" s="42"/>
-      <c r="BX70" s="79"/>
-      <c r="BY70" s="79"/>
-      <c r="BZ70" s="79"/>
+      <c r="BX70" s="42"/>
+      <c r="BY70" s="42"/>
+      <c r="BZ70" s="42"/>
       <c r="CA70" s="42"/>
       <c r="CB70" s="42"/>
       <c r="CC70" s="42"/>
       <c r="CD70" s="42"/>
-      <c r="CE70" s="42"/>
-      <c r="CF70" s="42"/>
-      <c r="CG70" s="42"/>
+      <c r="CE70" s="78"/>
+      <c r="CF70" s="78"/>
+      <c r="CG70" s="78"/>
       <c r="CH70" s="42"/>
       <c r="CI70" s="42"/>
       <c r="CJ70" s="42"/>
@@ -10134,7 +10139,7 @@
       <c r="CQ70" s="42"/>
       <c r="CR70" s="42"/>
     </row>
-    <row r="71" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A71" s="42">
         <v>11.03</v>
       </c>
@@ -10144,8 +10149,8 @@
       <c r="C71" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="D71" s="53"/>
-      <c r="E71" s="54"/>
+      <c r="D71" s="52"/>
+      <c r="E71" s="53"/>
       <c r="F71" s="42"/>
       <c r="G71" s="42"/>
       <c r="H71" s="42"/>
@@ -10218,14 +10223,14 @@
       <c r="BW71" s="42"/>
       <c r="BX71" s="42"/>
       <c r="BY71" s="42"/>
-      <c r="BZ71" s="79"/>
+      <c r="BZ71" s="42"/>
       <c r="CA71" s="42"/>
       <c r="CB71" s="42"/>
       <c r="CC71" s="42"/>
       <c r="CD71" s="42"/>
       <c r="CE71" s="42"/>
       <c r="CF71" s="42"/>
-      <c r="CG71" s="42"/>
+      <c r="CG71" s="78"/>
       <c r="CH71" s="42"/>
       <c r="CI71" s="42"/>
       <c r="CJ71" s="42"/>
@@ -10238,7 +10243,7 @@
       <c r="CQ71" s="42"/>
       <c r="CR71" s="42"/>
     </row>
-    <row r="72" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A72" s="42">
         <v>11.04</v>
       </c>
@@ -10248,8 +10253,8 @@
       <c r="C72" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="D72" s="53"/>
-      <c r="E72" s="54"/>
+      <c r="D72" s="52"/>
+      <c r="E72" s="53"/>
       <c r="F72" s="42"/>
       <c r="G72" s="42"/>
       <c r="H72" s="42"/>
@@ -10322,15 +10327,15 @@
       <c r="BW72" s="42"/>
       <c r="BX72" s="42"/>
       <c r="BY72" s="42"/>
-      <c r="BZ72" s="79"/>
-      <c r="CA72" s="79"/>
+      <c r="BZ72" s="42"/>
+      <c r="CA72" s="42"/>
       <c r="CB72" s="42"/>
       <c r="CC72" s="42"/>
       <c r="CD72" s="42"/>
       <c r="CE72" s="42"/>
       <c r="CF72" s="42"/>
-      <c r="CG72" s="42"/>
-      <c r="CH72" s="42"/>
+      <c r="CG72" s="78"/>
+      <c r="CH72" s="78"/>
       <c r="CI72" s="42"/>
       <c r="CJ72" s="42"/>
       <c r="CK72" s="42"/>
@@ -10342,18 +10347,18 @@
       <c r="CQ72" s="42"/>
       <c r="CR72" s="42"/>
     </row>
-    <row r="73" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A73" s="42">
         <v>11.05</v>
       </c>
       <c r="B73" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="C73" s="68" t="s">
+      <c r="C73" s="67" t="s">
         <v>111</v>
       </c>
-      <c r="D73" s="53"/>
-      <c r="E73" s="54"/>
+      <c r="D73" s="52"/>
+      <c r="E73" s="53"/>
       <c r="F73" s="42"/>
       <c r="G73" s="42"/>
       <c r="H73" s="42"/>
@@ -10426,19 +10431,19 @@
       <c r="BW73" s="42"/>
       <c r="BX73" s="42"/>
       <c r="BY73" s="42"/>
-      <c r="BZ73" s="79"/>
-      <c r="CA73" s="79"/>
+      <c r="BZ73" s="42"/>
+      <c r="CA73" s="42"/>
       <c r="CB73" s="42"/>
       <c r="CC73" s="42"/>
-      <c r="CD73" s="79"/>
-      <c r="CE73" s="79"/>
+      <c r="CD73" s="42"/>
+      <c r="CE73" s="42"/>
       <c r="CF73" s="42"/>
-      <c r="CG73" s="42"/>
-      <c r="CH73" s="42"/>
+      <c r="CG73" s="78"/>
+      <c r="CH73" s="78"/>
       <c r="CI73" s="42"/>
       <c r="CJ73" s="42"/>
-      <c r="CK73" s="42"/>
-      <c r="CL73" s="42"/>
+      <c r="CK73" s="78"/>
+      <c r="CL73" s="78"/>
       <c r="CM73" s="42"/>
       <c r="CN73" s="42"/>
       <c r="CO73" s="42"/>
@@ -10446,16 +10451,16 @@
       <c r="CQ73" s="42"/>
       <c r="CR73" s="42"/>
     </row>
-    <row r="74" spans="1:96" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="52">
+    <row r="74" spans="1:96" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="51">
         <v>12</v>
       </c>
-      <c r="B74" s="52" t="s">
+      <c r="B74" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="C74" s="67"/>
-      <c r="D74" s="61"/>
-      <c r="E74" s="59"/>
+      <c r="C74" s="66"/>
+      <c r="D74" s="60"/>
+      <c r="E74" s="58"/>
       <c r="F74" s="42"/>
       <c r="G74" s="42"/>
       <c r="H74" s="42"/>
@@ -10548,7 +10553,7 @@
       <c r="CQ74" s="42"/>
       <c r="CR74" s="42"/>
     </row>
-    <row r="75" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A75" s="42">
         <v>12.01</v>
       </c>
@@ -10558,8 +10563,8 @@
       <c r="C75" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="D75" s="53"/>
-      <c r="E75" s="54"/>
+      <c r="D75" s="52"/>
+      <c r="E75" s="53"/>
       <c r="F75" s="42"/>
       <c r="G75" s="42"/>
       <c r="H75" s="42"/>
@@ -10638,13 +10643,13 @@
       <c r="CC75" s="42"/>
       <c r="CD75" s="42"/>
       <c r="CE75" s="42"/>
-      <c r="CF75" s="79"/>
-      <c r="CG75" s="79"/>
+      <c r="CF75" s="42"/>
+      <c r="CG75" s="42"/>
       <c r="CH75" s="42"/>
       <c r="CI75" s="42"/>
       <c r="CJ75" s="42"/>
-      <c r="CK75" s="42"/>
-      <c r="CL75" s="42"/>
+      <c r="CK75" s="78"/>
+      <c r="CL75" s="78"/>
       <c r="CM75" s="42"/>
       <c r="CN75" s="42"/>
       <c r="CO75" s="42"/>
@@ -10652,7 +10657,7 @@
       <c r="CQ75" s="42"/>
       <c r="CR75" s="42"/>
     </row>
-    <row r="76" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A76" s="42">
         <v>12.02</v>
       </c>
@@ -10662,8 +10667,8 @@
       <c r="C76" s="38" t="s">
         <v>194</v>
       </c>
-      <c r="D76" s="53"/>
-      <c r="E76" s="54"/>
+      <c r="D76" s="52"/>
+      <c r="E76" s="53"/>
       <c r="F76" s="42"/>
       <c r="G76" s="42"/>
       <c r="H76" s="42"/>
@@ -10743,31 +10748,31 @@
       <c r="CD76" s="42"/>
       <c r="CE76" s="42"/>
       <c r="CF76" s="42"/>
-      <c r="CG76" s="79"/>
-      <c r="CH76" s="79"/>
+      <c r="CG76" s="42"/>
+      <c r="CH76" s="42"/>
       <c r="CI76" s="42"/>
       <c r="CJ76" s="42"/>
       <c r="CK76" s="42"/>
-      <c r="CL76" s="42"/>
-      <c r="CM76" s="42"/>
+      <c r="CL76" s="78"/>
+      <c r="CM76" s="78"/>
       <c r="CN76" s="42"/>
       <c r="CO76" s="42"/>
       <c r="CP76" s="42"/>
       <c r="CQ76" s="42"/>
       <c r="CR76" s="42"/>
     </row>
-    <row r="77" spans="1:96" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:96" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A77" s="42">
         <v>12.03</v>
       </c>
-      <c r="B77" s="56" t="s">
+      <c r="B77" s="55" t="s">
         <v>91</v>
       </c>
       <c r="C77" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="D77" s="53"/>
-      <c r="E77" s="54"/>
+      <c r="D77" s="52"/>
+      <c r="E77" s="53"/>
       <c r="F77" s="42"/>
       <c r="G77" s="42"/>
       <c r="H77" s="42"/>
@@ -10851,16 +10856,16 @@
       <c r="CH77" s="42"/>
       <c r="CI77" s="42"/>
       <c r="CJ77" s="42"/>
-      <c r="CK77" s="79"/>
-      <c r="CL77" s="79"/>
-      <c r="CM77" s="42"/>
+      <c r="CK77" s="42"/>
+      <c r="CL77" s="78"/>
+      <c r="CM77" s="78"/>
       <c r="CN77" s="42"/>
       <c r="CO77" s="42"/>
       <c r="CP77" s="42"/>
       <c r="CQ77" s="42"/>
       <c r="CR77" s="42"/>
     </row>
-    <row r="78" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A78" s="42">
         <v>12.04</v>
       </c>
@@ -10870,8 +10875,8 @@
       <c r="C78" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="D78" s="53"/>
-      <c r="E78" s="54"/>
+      <c r="D78" s="52"/>
+      <c r="E78" s="53"/>
       <c r="F78" s="42"/>
       <c r="G78" s="42"/>
       <c r="H78" s="42"/>
@@ -10955,16 +10960,16 @@
       <c r="CH78" s="42"/>
       <c r="CI78" s="42"/>
       <c r="CJ78" s="42"/>
-      <c r="CK78" s="79"/>
-      <c r="CL78" s="79"/>
-      <c r="CM78" s="42"/>
+      <c r="CK78" s="42"/>
+      <c r="CL78" s="78"/>
+      <c r="CM78" s="78"/>
       <c r="CN78" s="42"/>
       <c r="CO78" s="42"/>
       <c r="CP78" s="42"/>
       <c r="CQ78" s="42"/>
       <c r="CR78" s="42"/>
     </row>
-    <row r="79" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A79" s="42">
         <v>12.05</v>
       </c>
@@ -10974,8 +10979,8 @@
       <c r="C79" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="D79" s="53"/>
-      <c r="E79" s="54"/>
+      <c r="D79" s="52"/>
+      <c r="E79" s="53"/>
       <c r="F79" s="42"/>
       <c r="G79" s="42"/>
       <c r="H79" s="42"/>
@@ -11061,23 +11066,23 @@
       <c r="CJ79" s="42"/>
       <c r="CK79" s="42"/>
       <c r="CL79" s="42"/>
-      <c r="CM79" s="79"/>
+      <c r="CM79" s="78"/>
       <c r="CN79" s="42"/>
       <c r="CO79" s="42"/>
       <c r="CP79" s="42"/>
       <c r="CQ79" s="42"/>
       <c r="CR79" s="42"/>
     </row>
-    <row r="80" spans="1:96" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="52">
+    <row r="80" spans="1:96" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="51">
         <v>13</v>
       </c>
-      <c r="B80" s="52" t="s">
+      <c r="B80" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="C80" s="67"/>
-      <c r="D80" s="61"/>
-      <c r="E80" s="59"/>
+      <c r="C80" s="66"/>
+      <c r="D80" s="60"/>
+      <c r="E80" s="58"/>
       <c r="F80" s="42"/>
       <c r="G80" s="42"/>
       <c r="H80" s="42"/>
@@ -11170,7 +11175,7 @@
       <c r="CQ80" s="42"/>
       <c r="CR80" s="42"/>
     </row>
-    <row r="81" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A81" s="42">
         <v>13.01</v>
       </c>
@@ -11180,8 +11185,8 @@
       <c r="C81" s="38" t="s">
         <v>202</v>
       </c>
-      <c r="D81" s="53"/>
-      <c r="E81" s="54"/>
+      <c r="D81" s="52"/>
+      <c r="E81" s="53"/>
       <c r="F81" s="42"/>
       <c r="G81" s="42"/>
       <c r="H81" s="42"/>
@@ -11268,22 +11273,22 @@
       <c r="CK81" s="42"/>
       <c r="CL81" s="42"/>
       <c r="CM81" s="42"/>
-      <c r="CN81" s="79"/>
+      <c r="CN81" s="78"/>
       <c r="CO81" s="42"/>
       <c r="CP81" s="42"/>
       <c r="CQ81" s="42"/>
       <c r="CR81" s="42"/>
     </row>
-    <row r="82" spans="1:96" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="52">
+    <row r="82" spans="1:96" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="51">
         <v>14</v>
       </c>
-      <c r="B82" s="52" t="s">
+      <c r="B82" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="C82" s="67"/>
-      <c r="D82" s="61"/>
-      <c r="E82" s="59"/>
+      <c r="C82" s="66"/>
+      <c r="D82" s="60"/>
+      <c r="E82" s="58"/>
       <c r="F82" s="42"/>
       <c r="G82" s="42"/>
       <c r="H82" s="42"/>
@@ -11376,7 +11381,7 @@
       <c r="CQ82" s="42"/>
       <c r="CR82" s="42"/>
     </row>
-    <row r="83" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A83" s="42">
         <v>14.01</v>
       </c>
@@ -11386,8 +11391,8 @@
       <c r="C83" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="D83" s="53"/>
-      <c r="E83" s="54"/>
+      <c r="D83" s="52"/>
+      <c r="E83" s="53"/>
       <c r="F83" s="42"/>
       <c r="G83" s="42"/>
       <c r="H83" s="42"/>
@@ -11475,21 +11480,21 @@
       <c r="CL83" s="42"/>
       <c r="CM83" s="42"/>
       <c r="CN83" s="42"/>
-      <c r="CO83" s="79"/>
+      <c r="CO83" s="78"/>
       <c r="CP83" s="42"/>
       <c r="CQ83" s="42"/>
       <c r="CR83" s="42"/>
     </row>
-    <row r="84" spans="1:96" x14ac:dyDescent="0.2">
-      <c r="A84" s="52">
+    <row r="84" spans="1:96" x14ac:dyDescent="0.3">
+      <c r="A84" s="51">
         <v>15</v>
       </c>
-      <c r="B84" s="52" t="s">
+      <c r="B84" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="C84" s="67"/>
-      <c r="D84" s="61"/>
-      <c r="E84" s="59"/>
+      <c r="C84" s="66"/>
+      <c r="D84" s="60"/>
+      <c r="E84" s="58"/>
       <c r="F84" s="42"/>
       <c r="G84" s="42"/>
       <c r="H84" s="42"/>
@@ -11582,7 +11587,7 @@
       <c r="CQ84" s="42"/>
       <c r="CR84" s="42"/>
     </row>
-    <row r="85" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A85" s="42">
         <v>17</v>
       </c>
@@ -11590,8 +11595,8 @@
         <v>98</v>
       </c>
       <c r="C85" s="38"/>
-      <c r="D85" s="57"/>
-      <c r="E85" s="58"/>
+      <c r="D85" s="56"/>
+      <c r="E85" s="57"/>
       <c r="F85" s="42"/>
       <c r="G85" s="42"/>
       <c r="H85" s="42"/>
@@ -11682,17 +11687,17 @@
       <c r="CO85" s="42"/>
       <c r="CP85" s="42"/>
       <c r="CQ85" s="42"/>
-      <c r="CR85" s="79"/>
-    </row>
-    <row r="87" spans="1:96" x14ac:dyDescent="0.2">
-      <c r="B87" s="112" t="s">
+      <c r="CR85" s="78"/>
+    </row>
+    <row r="87" spans="1:96" x14ac:dyDescent="0.3">
+      <c r="B87" s="115" t="s">
         <v>190</v>
       </c>
-      <c r="C87" s="69"/>
+      <c r="C87" s="68"/>
       <c r="D87" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="E87" s="62" t="s">
+      <c r="E87" s="61" t="s">
         <v>192</v>
       </c>
       <c r="F87" s="48"/>
@@ -11702,60 +11707,60 @@
       <c r="J87" s="48"/>
       <c r="K87" s="48"/>
     </row>
-    <row r="88" spans="1:96" x14ac:dyDescent="0.2">
-      <c r="B88" s="113"/>
+    <row r="88" spans="1:96" x14ac:dyDescent="0.3">
+      <c r="B88" s="116"/>
       <c r="C88" s="48"/>
-      <c r="D88" s="86">
+      <c r="D88" s="85">
         <f>+D11</f>
-        <v>43984</v>
-      </c>
-      <c r="E88" s="87">
+        <v>43997</v>
+      </c>
+      <c r="E88" s="86">
         <f>+E61</f>
         <v>44074</v>
       </c>
     </row>
-    <row r="89" spans="1:96" x14ac:dyDescent="0.2">
-      <c r="B89" s="112" t="s">
+    <row r="89" spans="1:96" x14ac:dyDescent="0.3">
+      <c r="B89" s="115" t="s">
         <v>193</v>
       </c>
-      <c r="C89" s="69"/>
-      <c r="D89" s="107" t="s">
+      <c r="C89" s="68"/>
+      <c r="D89" s="113" t="s">
         <v>227</v>
       </c>
-      <c r="E89" s="108"/>
-      <c r="F89" s="63"/>
-      <c r="G89" s="63"/>
-      <c r="H89" s="63"/>
-      <c r="I89" s="63"/>
-      <c r="J89" s="63"/>
-      <c r="K89" s="63"/>
-    </row>
-    <row r="90" spans="1:96" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="113"/>
-      <c r="C90" s="70"/>
-      <c r="D90" s="107" t="s">
+      <c r="E89" s="114"/>
+      <c r="F89" s="62"/>
+      <c r="G89" s="62"/>
+      <c r="H89" s="62"/>
+      <c r="I89" s="62"/>
+      <c r="J89" s="62"/>
+      <c r="K89" s="62"/>
+    </row>
+    <row r="90" spans="1:96" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="116"/>
+      <c r="C90" s="69"/>
+      <c r="D90" s="113" t="s">
         <v>228</v>
       </c>
-      <c r="E90" s="108"/>
-      <c r="F90" s="63"/>
-      <c r="G90" s="63"/>
-      <c r="H90" s="63"/>
-      <c r="I90" s="63"/>
-      <c r="J90" s="63"/>
-      <c r="K90" s="63"/>
-    </row>
-    <row r="92" spans="1:96" x14ac:dyDescent="0.2">
-      <c r="C92" s="64">
+      <c r="E90" s="114"/>
+      <c r="F90" s="62"/>
+      <c r="G90" s="62"/>
+      <c r="H90" s="62"/>
+      <c r="I90" s="62"/>
+      <c r="J90" s="62"/>
+      <c r="K90" s="62"/>
+    </row>
+    <row r="92" spans="1:96" x14ac:dyDescent="0.3">
+      <c r="C92" s="63">
         <f>13*5</f>
         <v>65</v>
       </c>
     </row>
-    <row r="95" spans="1:96" x14ac:dyDescent="0.2">
-      <c r="B95" s="89" t="s">
+    <row r="95" spans="1:96" x14ac:dyDescent="0.3">
+      <c r="B95" s="88" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="96" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A96" s="37">
         <v>1</v>
       </c>
@@ -11763,7 +11768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="37">
         <v>2</v>
       </c>
@@ -11771,7 +11776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="37">
         <v>3</v>
       </c>
@@ -11779,7 +11784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="37">
         <v>4</v>
       </c>
@@ -11787,7 +11792,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="37">
         <v>5</v>
       </c>
@@ -11795,7 +11800,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="37">
         <v>6</v>
       </c>
@@ -11803,7 +11808,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="37">
         <v>7</v>
       </c>
@@ -11822,16 +11827,15 @@
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D89:E89"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="L4:P4"/>
-    <mergeCell ref="S4:W4"/>
-    <mergeCell ref="Z4:AD4"/>
-    <mergeCell ref="BP4:BT4"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="E1:E4"/>
     <mergeCell ref="D1:D4"/>
     <mergeCell ref="C1:C4"/>
     <mergeCell ref="F1:AH1"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="S4:W4"/>
+    <mergeCell ref="Z4:AD4"/>
     <mergeCell ref="AI1:BM1"/>
     <mergeCell ref="BN1:CQ1"/>
     <mergeCell ref="BB4:BF4"/>
@@ -11842,6 +11846,7 @@
     <mergeCell ref="CK4:CO4"/>
     <mergeCell ref="CD4:CH4"/>
     <mergeCell ref="BW4:CA4"/>
+    <mergeCell ref="BP4:BT4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11854,27 +11859,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEAF0343-53AF-4B02-BC03-ACC3328D8F3B}">
   <dimension ref="A2:K59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A37" workbookViewId="0">
       <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="38.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="44.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="5.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.375" style="1" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" style="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.125" style="1" customWidth="1"/>
     <col min="11" max="11" width="17" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
@@ -11906,7 +11911,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="8" t="s">
         <v>19</v>
@@ -11915,7 +11920,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="123">
+      <c r="G3" s="90">
         <f>SUM(G4:G11)</f>
         <v>69500</v>
       </c>
@@ -11924,7 +11929,7 @@
         <v>61500</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <v>1</v>
       </c>
@@ -11938,22 +11943,22 @@
       <c r="E4" s="16">
         <v>3</v>
       </c>
-      <c r="F4" s="122">
+      <c r="F4" s="89">
         <v>4500</v>
       </c>
-      <c r="G4" s="122">
+      <c r="G4" s="89">
         <f>F4*E4</f>
         <v>13500</v>
       </c>
-      <c r="H4" s="122">
+      <c r="H4" s="89">
         <f>+F4</f>
         <v>4500</v>
       </c>
-      <c r="I4" s="122">
+      <c r="I4" s="89">
         <f>+F4</f>
         <v>4500</v>
       </c>
-      <c r="J4" s="122">
+      <c r="J4" s="89">
         <f>+F4</f>
         <v>4500</v>
       </c>
@@ -11962,7 +11967,7 @@
         <v>13500</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -11978,22 +11983,22 @@
       <c r="E5" s="2">
         <v>3</v>
       </c>
-      <c r="F5" s="122">
+      <c r="F5" s="89">
         <v>4000</v>
       </c>
-      <c r="G5" s="122">
+      <c r="G5" s="89">
         <f>F5*E5</f>
         <v>12000</v>
       </c>
-      <c r="H5" s="122">
+      <c r="H5" s="89">
         <f>+F5</f>
         <v>4000</v>
       </c>
-      <c r="I5" s="122">
+      <c r="I5" s="89">
         <f>+H5</f>
         <v>4000</v>
       </c>
-      <c r="J5" s="122">
+      <c r="J5" s="89">
         <f>+I5</f>
         <v>4000</v>
       </c>
@@ -12002,7 +12007,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="16">
         <v>3</v>
       </c>
@@ -12018,19 +12023,19 @@
       <c r="E6" s="2">
         <v>3</v>
       </c>
-      <c r="F6" s="122">
+      <c r="F6" s="89">
         <v>4000</v>
       </c>
-      <c r="G6" s="122">
+      <c r="G6" s="89">
         <f t="shared" ref="G6:G17" si="1">F6*E6</f>
         <v>12000</v>
       </c>
-      <c r="H6" s="122"/>
-      <c r="I6" s="122">
+      <c r="H6" s="89"/>
+      <c r="I6" s="89">
         <f>+F6</f>
         <v>4000</v>
       </c>
-      <c r="J6" s="122">
+      <c r="J6" s="89">
         <f>+I6</f>
         <v>4000</v>
       </c>
@@ -12039,7 +12044,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
         <v>4</v>
       </c>
@@ -12055,19 +12060,19 @@
       <c r="E7" s="2">
         <v>3</v>
       </c>
-      <c r="F7" s="122">
+      <c r="F7" s="89">
         <v>4000</v>
       </c>
-      <c r="G7" s="122">
+      <c r="G7" s="89">
         <f t="shared" si="1"/>
         <v>12000</v>
       </c>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122">
+      <c r="H7" s="89"/>
+      <c r="I7" s="89">
         <f>+F7</f>
         <v>4000</v>
       </c>
-      <c r="J7" s="122">
+      <c r="J7" s="89">
         <f>+I7</f>
         <v>4000</v>
       </c>
@@ -12076,7 +12081,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
         <v>5</v>
       </c>
@@ -12092,16 +12097,16 @@
       <c r="E8" s="2">
         <v>1</v>
       </c>
-      <c r="F8" s="122">
+      <c r="F8" s="89">
         <v>4000</v>
       </c>
-      <c r="G8" s="122">
+      <c r="G8" s="89">
         <f t="shared" si="1"/>
         <v>4000</v>
       </c>
-      <c r="H8" s="122"/>
-      <c r="I8" s="122"/>
-      <c r="J8" s="122">
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89">
         <f>+F8</f>
         <v>4000</v>
       </c>
@@ -12110,7 +12115,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <v>6</v>
       </c>
@@ -12124,19 +12129,19 @@
       <c r="E9" s="16">
         <v>2</v>
       </c>
-      <c r="F9" s="122">
+      <c r="F9" s="89">
         <v>4000</v>
       </c>
-      <c r="G9" s="122">
+      <c r="G9" s="89">
         <f t="shared" si="1"/>
         <v>8000</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="122">
+      <c r="H9" s="89"/>
+      <c r="I9" s="89">
         <f>F9</f>
         <v>4000</v>
       </c>
-      <c r="J9" s="122">
+      <c r="J9" s="89">
         <f>+I9</f>
         <v>4000</v>
       </c>
@@ -12145,7 +12150,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
         <v>7</v>
       </c>
@@ -12161,16 +12166,16 @@
       <c r="E10" s="2">
         <v>1</v>
       </c>
-      <c r="F10" s="122">
+      <c r="F10" s="89">
         <v>4000</v>
       </c>
-      <c r="G10" s="122">
+      <c r="G10" s="89">
         <f t="shared" si="1"/>
         <v>4000</v>
       </c>
-      <c r="H10" s="122"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="122">
+      <c r="H10" s="89"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="89">
         <f>F10</f>
         <v>4000</v>
       </c>
@@ -12179,7 +12184,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="16">
         <v>8</v>
       </c>
@@ -12195,25 +12200,25 @@
       <c r="E11" s="16">
         <v>1</v>
       </c>
-      <c r="F11" s="122">
+      <c r="F11" s="89">
         <v>4000</v>
       </c>
-      <c r="G11" s="122">
+      <c r="G11" s="89">
         <f>F11*E11</f>
         <v>4000</v>
       </c>
-      <c r="H11" s="122">
+      <c r="H11" s="89">
         <f>F11</f>
         <v>4000</v>
       </c>
-      <c r="I11" s="122"/>
-      <c r="J11" s="122"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="89"/>
       <c r="K11" s="30">
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="9" t="s">
         <v>20</v>
@@ -12221,20 +12226,20 @@
       <c r="C12" s="3"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="122"/>
-      <c r="G12" s="123">
+      <c r="F12" s="89"/>
+      <c r="G12" s="90">
         <f>+G13</f>
         <v>5000</v>
       </c>
-      <c r="H12" s="122"/>
-      <c r="I12" s="122"/>
-      <c r="J12" s="122"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="89"/>
       <c r="K12" s="6">
         <f>+K13</f>
         <v>5000</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>1</v>
       </c>
@@ -12250,28 +12255,28 @@
       <c r="E13" s="2">
         <v>2</v>
       </c>
-      <c r="F13" s="122">
+      <c r="F13" s="89">
         <v>2500</v>
       </c>
       <c r="G13" s="5">
         <f>F13*E13</f>
         <v>5000</v>
       </c>
-      <c r="H13" s="122">
+      <c r="H13" s="89">
         <f>+F13</f>
         <v>2500</v>
       </c>
-      <c r="I13" s="122">
+      <c r="I13" s="89">
         <f>+F13</f>
         <v>2500</v>
       </c>
-      <c r="J13" s="122"/>
+      <c r="J13" s="89"/>
       <c r="K13" s="30">
         <f>SUM(H13:J13)</f>
         <v>5000</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="8" t="s">
         <v>26</v>
@@ -12279,20 +12284,20 @@
       <c r="C14" s="3"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="123">
+      <c r="F14" s="89"/>
+      <c r="G14" s="90">
         <f>SUM(G15:G17)</f>
         <v>8400</v>
       </c>
-      <c r="H14" s="122"/>
-      <c r="I14" s="122"/>
-      <c r="J14" s="122"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="89"/>
+      <c r="J14" s="89"/>
       <c r="K14" s="6">
         <f>SUM(K15:K17)</f>
         <v>8400</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>1</v>
       </c>
@@ -12308,26 +12313,26 @@
       <c r="E15" s="2">
         <v>1</v>
       </c>
-      <c r="F15" s="122">
+      <c r="F15" s="89">
         <f>700*4</f>
         <v>2800</v>
       </c>
-      <c r="G15" s="122">
+      <c r="G15" s="89">
         <f t="shared" si="1"/>
         <v>2800</v>
       </c>
-      <c r="H15" s="122">
+      <c r="H15" s="89">
         <f>+G15</f>
         <v>2800</v>
       </c>
-      <c r="I15" s="122"/>
-      <c r="J15" s="122"/>
+      <c r="I15" s="89"/>
+      <c r="J15" s="89"/>
       <c r="K15" s="30">
         <f>SUM(H15:J15)</f>
         <v>2800</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="16">
         <v>2</v>
       </c>
@@ -12341,25 +12346,25 @@
       <c r="E16" s="16">
         <v>1</v>
       </c>
-      <c r="F16" s="122">
+      <c r="F16" s="89">
         <v>2100</v>
       </c>
-      <c r="G16" s="122">
+      <c r="G16" s="89">
         <f t="shared" si="1"/>
         <v>2100</v>
       </c>
-      <c r="H16" s="122">
+      <c r="H16" s="89">
         <f>+F16</f>
         <v>2100</v>
       </c>
-      <c r="I16" s="122"/>
-      <c r="J16" s="122"/>
+      <c r="I16" s="89"/>
+      <c r="J16" s="89"/>
       <c r="K16" s="30">
         <f>SUM(H16:J16)</f>
         <v>2100</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="16">
         <v>3</v>
       </c>
@@ -12373,25 +12378,25 @@
       <c r="E17" s="16">
         <v>1</v>
       </c>
-      <c r="F17" s="122">
+      <c r="F17" s="89">
         <v>3500</v>
       </c>
-      <c r="G17" s="122">
+      <c r="G17" s="89">
         <f t="shared" si="1"/>
         <v>3500</v>
       </c>
-      <c r="H17" s="122">
+      <c r="H17" s="89">
         <f>+F17</f>
         <v>3500</v>
       </c>
-      <c r="I17" s="122"/>
-      <c r="J17" s="122"/>
+      <c r="I17" s="89"/>
+      <c r="J17" s="89"/>
       <c r="K17" s="30">
         <f>SUM(H17:J17)</f>
         <v>3500</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A18" s="16"/>
       <c r="B18" s="24" t="s">
         <v>151</v>
@@ -12399,20 +12404,20 @@
       <c r="C18" s="17"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
-      <c r="F18" s="122"/>
-      <c r="G18" s="123">
+      <c r="F18" s="89"/>
+      <c r="G18" s="90">
         <f>SUM(G19:G43)</f>
         <v>26031.5</v>
       </c>
-      <c r="H18" s="122"/>
-      <c r="I18" s="122"/>
-      <c r="J18" s="122"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="89"/>
       <c r="K18" s="26">
         <f>SUM(K19:K43)</f>
         <v>26031.5</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="16">
         <v>1</v>
       </c>
@@ -12426,28 +12431,28 @@
       <c r="E19" s="20">
         <v>6</v>
       </c>
-      <c r="F19" s="122">
+      <c r="F19" s="89">
         <v>16</v>
       </c>
-      <c r="G19" s="122">
+      <c r="G19" s="89">
         <f>E19*F19</f>
         <v>96</v>
       </c>
-      <c r="H19" s="122">
+      <c r="H19" s="89">
         <f>G19/2</f>
         <v>48</v>
       </c>
-      <c r="I19" s="122">
+      <c r="I19" s="89">
         <f>+H19</f>
         <v>48</v>
       </c>
-      <c r="J19" s="122"/>
+      <c r="J19" s="89"/>
       <c r="K19" s="30">
         <f t="shared" ref="K19:K43" si="2">SUM(H19:J19)</f>
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="16">
         <v>2</v>
       </c>
@@ -12461,16 +12466,16 @@
       <c r="E20" s="20">
         <v>4</v>
       </c>
-      <c r="F20" s="122">
+      <c r="F20" s="89">
         <v>30</v>
       </c>
-      <c r="G20" s="122">
+      <c r="G20" s="89">
         <f>E20*F20</f>
         <v>120</v>
       </c>
-      <c r="H20" s="122"/>
-      <c r="I20" s="122"/>
-      <c r="J20" s="122">
+      <c r="H20" s="89"/>
+      <c r="I20" s="89"/>
+      <c r="J20" s="89">
         <f>+G20</f>
         <v>120</v>
       </c>
@@ -12479,7 +12484,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="16">
         <v>3</v>
       </c>
@@ -12493,25 +12498,25 @@
       <c r="E21" s="20">
         <v>6</v>
       </c>
-      <c r="F21" s="122">
+      <c r="F21" s="89">
         <v>28</v>
       </c>
-      <c r="G21" s="122">
+      <c r="G21" s="89">
         <f t="shared" ref="G21:G39" si="3">E21*F21</f>
         <v>168</v>
       </c>
-      <c r="H21" s="122">
+      <c r="H21" s="89">
         <f>+G21</f>
         <v>168</v>
       </c>
-      <c r="I21" s="122"/>
-      <c r="J21" s="122"/>
+      <c r="I21" s="89"/>
+      <c r="J21" s="89"/>
       <c r="K21" s="30">
         <f t="shared" si="2"/>
         <v>168</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="16">
         <v>4</v>
       </c>
@@ -12525,25 +12530,25 @@
       <c r="E22" s="20">
         <v>5</v>
       </c>
-      <c r="F22" s="122">
+      <c r="F22" s="89">
         <v>1.5</v>
       </c>
-      <c r="G22" s="122">
+      <c r="G22" s="89">
         <f t="shared" si="3"/>
         <v>7.5</v>
       </c>
-      <c r="H22" s="122">
+      <c r="H22" s="89">
         <f>+G22</f>
         <v>7.5</v>
       </c>
-      <c r="I22" s="122"/>
-      <c r="J22" s="122"/>
+      <c r="I22" s="89"/>
+      <c r="J22" s="89"/>
       <c r="K22" s="30">
         <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="16">
         <v>5</v>
       </c>
@@ -12557,25 +12562,25 @@
       <c r="E23" s="20">
         <v>4</v>
       </c>
-      <c r="F23" s="122">
+      <c r="F23" s="89">
         <v>4</v>
       </c>
-      <c r="G23" s="122">
+      <c r="G23" s="89">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="H23" s="122"/>
-      <c r="I23" s="122">
+      <c r="H23" s="89"/>
+      <c r="I23" s="89">
         <f>+G23</f>
         <v>16</v>
       </c>
-      <c r="J23" s="122"/>
+      <c r="J23" s="89"/>
       <c r="K23" s="30">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="16">
         <v>6</v>
       </c>
@@ -12589,25 +12594,25 @@
       <c r="E24" s="20">
         <v>2</v>
       </c>
-      <c r="F24" s="122">
+      <c r="F24" s="89">
         <v>310</v>
       </c>
-      <c r="G24" s="122">
+      <c r="G24" s="89">
         <f t="shared" si="3"/>
         <v>620</v>
       </c>
-      <c r="H24" s="122">
+      <c r="H24" s="89">
         <f>+G24</f>
         <v>620</v>
       </c>
-      <c r="I24" s="122"/>
-      <c r="J24" s="122"/>
+      <c r="I24" s="89"/>
+      <c r="J24" s="89"/>
       <c r="K24" s="30">
         <f t="shared" si="2"/>
         <v>620</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="16">
         <v>7</v>
       </c>
@@ -12621,25 +12626,25 @@
       <c r="E25" s="20">
         <v>2</v>
       </c>
-      <c r="F25" s="122">
+      <c r="F25" s="89">
         <v>275</v>
       </c>
-      <c r="G25" s="122">
+      <c r="G25" s="89">
         <f t="shared" si="3"/>
         <v>550</v>
       </c>
-      <c r="H25" s="122">
+      <c r="H25" s="89">
         <f>+G25</f>
         <v>550</v>
       </c>
-      <c r="I25" s="122"/>
-      <c r="J25" s="122"/>
+      <c r="I25" s="89"/>
+      <c r="J25" s="89"/>
       <c r="K25" s="30">
         <f t="shared" si="2"/>
         <v>550</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="16">
         <v>8</v>
       </c>
@@ -12653,25 +12658,25 @@
       <c r="E26" s="20">
         <v>3</v>
       </c>
-      <c r="F26" s="122">
+      <c r="F26" s="89">
         <v>2</v>
       </c>
-      <c r="G26" s="122">
+      <c r="G26" s="89">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="H26" s="122">
+      <c r="H26" s="89">
         <f>+G26</f>
         <v>6</v>
       </c>
-      <c r="I26" s="122"/>
-      <c r="J26" s="122"/>
+      <c r="I26" s="89"/>
+      <c r="J26" s="89"/>
       <c r="K26" s="30">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="16">
         <v>9</v>
       </c>
@@ -12685,25 +12690,25 @@
       <c r="E27" s="20">
         <v>4</v>
       </c>
-      <c r="F27" s="122">
+      <c r="F27" s="89">
         <v>5</v>
       </c>
-      <c r="G27" s="122">
+      <c r="G27" s="89">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="H27" s="122">
+      <c r="H27" s="89">
         <f>+G27</f>
         <v>20</v>
       </c>
-      <c r="I27" s="122"/>
-      <c r="J27" s="122"/>
+      <c r="I27" s="89"/>
+      <c r="J27" s="89"/>
       <c r="K27" s="30">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="16">
         <v>10</v>
       </c>
@@ -12717,25 +12722,25 @@
       <c r="E28" s="20">
         <v>5</v>
       </c>
-      <c r="F28" s="122">
+      <c r="F28" s="89">
         <v>10</v>
       </c>
-      <c r="G28" s="122">
+      <c r="G28" s="89">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="H28" s="122">
+      <c r="H28" s="89">
         <f>+G28</f>
         <v>50</v>
       </c>
-      <c r="I28" s="122"/>
-      <c r="J28" s="122"/>
+      <c r="I28" s="89"/>
+      <c r="J28" s="89"/>
       <c r="K28" s="30">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="16">
         <v>11</v>
       </c>
@@ -12749,16 +12754,16 @@
       <c r="E29" s="20">
         <v>100</v>
       </c>
-      <c r="F29" s="122">
+      <c r="F29" s="89">
         <v>1</v>
       </c>
-      <c r="G29" s="122">
+      <c r="G29" s="89">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="H29" s="122"/>
-      <c r="I29" s="122"/>
-      <c r="J29" s="122">
+      <c r="H29" s="89"/>
+      <c r="I29" s="89"/>
+      <c r="J29" s="89">
         <f>+G29</f>
         <v>100</v>
       </c>
@@ -12767,7 +12772,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="16">
         <v>12</v>
       </c>
@@ -12781,25 +12786,25 @@
       <c r="E30" s="20">
         <v>100</v>
       </c>
-      <c r="F30" s="122">
+      <c r="F30" s="89">
         <v>0.5</v>
       </c>
-      <c r="G30" s="122">
+      <c r="G30" s="89">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="H30" s="122"/>
-      <c r="I30" s="122">
+      <c r="H30" s="89"/>
+      <c r="I30" s="89">
         <f>+G30</f>
         <v>50</v>
       </c>
-      <c r="J30" s="122"/>
+      <c r="J30" s="89"/>
       <c r="K30" s="30">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="16">
         <v>13</v>
       </c>
@@ -12813,28 +12818,28 @@
       <c r="E31" s="20">
         <v>5</v>
       </c>
-      <c r="F31" s="122">
+      <c r="F31" s="89">
         <v>20</v>
       </c>
-      <c r="G31" s="122">
+      <c r="G31" s="89">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="H31" s="122">
+      <c r="H31" s="89">
         <f>G31/2</f>
         <v>50</v>
       </c>
-      <c r="I31" s="122">
+      <c r="I31" s="89">
         <f>+H31</f>
         <v>50</v>
       </c>
-      <c r="J31" s="122"/>
+      <c r="J31" s="89"/>
       <c r="K31" s="30">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="16">
         <v>14</v>
       </c>
@@ -12848,28 +12853,28 @@
       <c r="E32" s="20">
         <v>12</v>
       </c>
-      <c r="F32" s="122">
+      <c r="F32" s="89">
         <v>18</v>
       </c>
-      <c r="G32" s="122">
+      <c r="G32" s="89">
         <f t="shared" si="3"/>
         <v>216</v>
       </c>
-      <c r="H32" s="122">
+      <c r="H32" s="89">
         <f>+G32/2</f>
         <v>108</v>
       </c>
-      <c r="I32" s="122">
+      <c r="I32" s="89">
         <f>+H32</f>
         <v>108</v>
       </c>
-      <c r="J32" s="122"/>
+      <c r="J32" s="89"/>
       <c r="K32" s="30">
         <f t="shared" si="2"/>
         <v>216</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="16">
         <v>15</v>
       </c>
@@ -12883,19 +12888,19 @@
       <c r="E33" s="20">
         <v>12</v>
       </c>
-      <c r="F33" s="122">
+      <c r="F33" s="89">
         <v>12</v>
       </c>
-      <c r="G33" s="122">
+      <c r="G33" s="89">
         <f t="shared" si="3"/>
         <v>144</v>
       </c>
-      <c r="H33" s="122">
+      <c r="H33" s="89">
         <f>G33/2</f>
         <v>72</v>
       </c>
-      <c r="I33" s="122"/>
-      <c r="J33" s="122">
+      <c r="I33" s="89"/>
+      <c r="J33" s="89">
         <f>+H33</f>
         <v>72</v>
       </c>
@@ -12904,7 +12909,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="16">
         <v>16</v>
       </c>
@@ -12918,19 +12923,19 @@
       <c r="E34" s="20">
         <v>14</v>
       </c>
-      <c r="F34" s="122">
+      <c r="F34" s="89">
         <v>3</v>
       </c>
-      <c r="G34" s="122">
+      <c r="G34" s="89">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
-      <c r="H34" s="122">
+      <c r="H34" s="89">
         <f>G34/2</f>
         <v>21</v>
       </c>
-      <c r="I34" s="122"/>
-      <c r="J34" s="122">
+      <c r="I34" s="89"/>
+      <c r="J34" s="89">
         <f>+H34</f>
         <v>21</v>
       </c>
@@ -12939,7 +12944,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="16">
         <v>17</v>
       </c>
@@ -12953,28 +12958,28 @@
       <c r="E35" s="20">
         <v>200</v>
       </c>
-      <c r="F35" s="122">
+      <c r="F35" s="89">
         <v>0.5</v>
       </c>
-      <c r="G35" s="122">
+      <c r="G35" s="89">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="H35" s="122">
+      <c r="H35" s="89">
         <f>G35/2</f>
         <v>50</v>
       </c>
-      <c r="I35" s="122">
+      <c r="I35" s="89">
         <f>+H35</f>
         <v>50</v>
       </c>
-      <c r="J35" s="122"/>
+      <c r="J35" s="89"/>
       <c r="K35" s="30">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="16">
         <v>18</v>
       </c>
@@ -12988,25 +12993,25 @@
       <c r="E36" s="20">
         <v>10</v>
       </c>
-      <c r="F36" s="122">
+      <c r="F36" s="89">
         <v>2.5</v>
       </c>
-      <c r="G36" s="122">
+      <c r="G36" s="89">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="H36" s="122">
+      <c r="H36" s="89">
         <f>+G36</f>
         <v>25</v>
       </c>
-      <c r="I36" s="122"/>
-      <c r="J36" s="122"/>
+      <c r="I36" s="89"/>
+      <c r="J36" s="89"/>
       <c r="K36" s="30">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="16">
         <v>19</v>
       </c>
@@ -13020,16 +13025,16 @@
       <c r="E37" s="20">
         <v>8</v>
       </c>
-      <c r="F37" s="122">
+      <c r="F37" s="89">
         <v>2.5</v>
       </c>
-      <c r="G37" s="122">
+      <c r="G37" s="89">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="H37" s="122"/>
-      <c r="I37" s="122"/>
-      <c r="J37" s="122">
+      <c r="H37" s="89"/>
+      <c r="I37" s="89"/>
+      <c r="J37" s="89">
         <f>+G37</f>
         <v>20</v>
       </c>
@@ -13038,7 +13043,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="16">
         <v>20</v>
       </c>
@@ -13052,25 +13057,25 @@
       <c r="E38" s="20">
         <v>5</v>
       </c>
-      <c r="F38" s="122">
+      <c r="F38" s="89">
         <v>119</v>
       </c>
-      <c r="G38" s="122">
+      <c r="G38" s="89">
         <f t="shared" si="3"/>
         <v>595</v>
       </c>
-      <c r="H38" s="122">
+      <c r="H38" s="89">
         <f t="shared" ref="H38:H43" si="4">+G38</f>
         <v>595</v>
       </c>
-      <c r="I38" s="122"/>
-      <c r="J38" s="122"/>
+      <c r="I38" s="89"/>
+      <c r="J38" s="89"/>
       <c r="K38" s="30">
         <f t="shared" si="2"/>
         <v>595</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="16">
         <v>21</v>
       </c>
@@ -13084,25 +13089,25 @@
       <c r="E39" s="20">
         <v>3</v>
       </c>
-      <c r="F39" s="122">
+      <c r="F39" s="89">
         <v>25</v>
       </c>
-      <c r="G39" s="122">
+      <c r="G39" s="89">
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
-      <c r="H39" s="122">
+      <c r="H39" s="89">
         <f t="shared" si="4"/>
         <v>75</v>
       </c>
-      <c r="I39" s="122"/>
-      <c r="J39" s="122"/>
+      <c r="I39" s="89"/>
+      <c r="J39" s="89"/>
       <c r="K39" s="30">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="16">
         <v>22</v>
       </c>
@@ -13116,25 +13121,25 @@
       <c r="E40" s="20">
         <v>3</v>
       </c>
-      <c r="F40" s="122">
+      <c r="F40" s="89">
         <v>6000</v>
       </c>
-      <c r="G40" s="122">
+      <c r="G40" s="89">
         <f t="shared" ref="G40:G43" si="5">E40*F40</f>
         <v>18000</v>
       </c>
-      <c r="H40" s="122">
+      <c r="H40" s="89">
         <f t="shared" si="4"/>
         <v>18000</v>
       </c>
-      <c r="I40" s="122"/>
-      <c r="J40" s="122"/>
+      <c r="I40" s="89"/>
+      <c r="J40" s="89"/>
       <c r="K40" s="30">
         <f t="shared" si="2"/>
         <v>18000</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="16">
         <v>23</v>
       </c>
@@ -13148,25 +13153,25 @@
       <c r="E41" s="20">
         <v>3</v>
       </c>
-      <c r="F41" s="122">
+      <c r="F41" s="89">
         <v>650</v>
       </c>
-      <c r="G41" s="122">
+      <c r="G41" s="89">
         <f t="shared" si="5"/>
         <v>1950</v>
       </c>
-      <c r="H41" s="122">
+      <c r="H41" s="89">
         <f t="shared" si="4"/>
         <v>1950</v>
       </c>
-      <c r="I41" s="122"/>
-      <c r="J41" s="122"/>
+      <c r="I41" s="89"/>
+      <c r="J41" s="89"/>
       <c r="K41" s="30">
         <f t="shared" si="2"/>
         <v>1950</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="16">
         <v>24</v>
       </c>
@@ -13180,25 +13185,25 @@
       <c r="E42" s="20">
         <v>3</v>
       </c>
-      <c r="F42" s="122">
+      <c r="F42" s="89">
         <v>487</v>
       </c>
-      <c r="G42" s="122">
+      <c r="G42" s="89">
         <f t="shared" si="5"/>
         <v>1461</v>
       </c>
-      <c r="H42" s="122">
+      <c r="H42" s="89">
         <f t="shared" si="4"/>
         <v>1461</v>
       </c>
-      <c r="I42" s="122"/>
-      <c r="J42" s="122"/>
+      <c r="I42" s="89"/>
+      <c r="J42" s="89"/>
       <c r="K42" s="30">
         <f t="shared" si="2"/>
         <v>1461</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="16">
         <v>25</v>
       </c>
@@ -13212,25 +13217,25 @@
       <c r="E43" s="20">
         <v>1</v>
       </c>
-      <c r="F43" s="122">
+      <c r="F43" s="89">
         <v>1500</v>
       </c>
-      <c r="G43" s="122">
+      <c r="G43" s="89">
         <f t="shared" si="5"/>
         <v>1500</v>
       </c>
-      <c r="H43" s="122">
+      <c r="H43" s="89">
         <f t="shared" si="4"/>
         <v>1500</v>
       </c>
-      <c r="I43" s="122"/>
-      <c r="J43" s="122"/>
+      <c r="I43" s="89"/>
+      <c r="J43" s="89"/>
       <c r="K43" s="30">
         <f t="shared" si="2"/>
         <v>1500</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="16"/>
       <c r="B44" s="18" t="s">
         <v>152</v>
@@ -13238,20 +13243,20 @@
       <c r="C44" s="17"/>
       <c r="D44" s="19"/>
       <c r="E44" s="19"/>
-      <c r="F44" s="122"/>
-      <c r="G44" s="123">
+      <c r="F44" s="89"/>
+      <c r="G44" s="90">
         <f>+G45+G46</f>
         <v>5205</v>
       </c>
-      <c r="H44" s="122"/>
-      <c r="I44" s="122"/>
-      <c r="J44" s="122"/>
+      <c r="H44" s="89"/>
+      <c r="I44" s="89"/>
+      <c r="J44" s="89"/>
       <c r="K44" s="6">
         <f>+K45+K46</f>
         <v>5205</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="16">
         <v>1</v>
       </c>
@@ -13265,28 +13270,28 @@
       <c r="E45" s="20">
         <v>10</v>
       </c>
-      <c r="F45" s="122">
+      <c r="F45" s="89">
         <v>300</v>
       </c>
-      <c r="G45" s="122">
+      <c r="G45" s="89">
         <f>E45*F45</f>
         <v>3000</v>
       </c>
-      <c r="H45" s="122">
+      <c r="H45" s="89">
         <f>+F45*5</f>
         <v>1500</v>
       </c>
-      <c r="I45" s="122">
+      <c r="I45" s="89">
         <f>F45*5</f>
         <v>1500</v>
       </c>
-      <c r="J45" s="122"/>
+      <c r="J45" s="89"/>
       <c r="K45" s="30">
         <f>SUM(H45:J45)</f>
         <v>3000</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="16">
         <v>2</v>
       </c>
@@ -13300,28 +13305,28 @@
       <c r="E46" s="20">
         <v>150</v>
       </c>
-      <c r="F46" s="122">
+      <c r="F46" s="89">
         <v>14.7</v>
       </c>
-      <c r="G46" s="122">
+      <c r="G46" s="89">
         <f>E46*F46</f>
         <v>2205</v>
       </c>
-      <c r="H46" s="122">
+      <c r="H46" s="89">
         <f>+F46*100</f>
         <v>1470</v>
       </c>
-      <c r="I46" s="122">
+      <c r="I46" s="89">
         <f>F46*50</f>
         <v>735</v>
       </c>
-      <c r="J46" s="122"/>
+      <c r="J46" s="89"/>
       <c r="K46" s="30">
         <f>SUM(H46:J46)</f>
         <v>2205</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="16"/>
       <c r="B47" s="18" t="s">
         <v>233</v>
@@ -13329,20 +13334,20 @@
       <c r="C47" s="17"/>
       <c r="D47" s="19"/>
       <c r="E47" s="19"/>
-      <c r="F47" s="122"/>
-      <c r="G47" s="123">
+      <c r="F47" s="89"/>
+      <c r="G47" s="90">
         <f>SUM(G48:G53)</f>
         <v>900</v>
       </c>
-      <c r="H47" s="122"/>
-      <c r="I47" s="122"/>
-      <c r="J47" s="122"/>
+      <c r="H47" s="89"/>
+      <c r="I47" s="89"/>
+      <c r="J47" s="89"/>
       <c r="K47" s="6">
         <f>SUM(K48:K53)</f>
         <v>900</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="16">
         <v>1</v>
       </c>
@@ -13356,28 +13361,28 @@
       <c r="E48" s="20">
         <v>3</v>
       </c>
-      <c r="F48" s="122">
+      <c r="F48" s="89">
         <v>50</v>
       </c>
-      <c r="G48" s="122">
+      <c r="G48" s="89">
         <f>E48*F48</f>
         <v>150</v>
       </c>
-      <c r="H48" s="122">
+      <c r="H48" s="89">
         <f>F48*2</f>
         <v>100</v>
       </c>
-      <c r="I48" s="122">
+      <c r="I48" s="89">
         <f>F48</f>
         <v>50</v>
       </c>
-      <c r="J48" s="122"/>
+      <c r="J48" s="89"/>
       <c r="K48" s="30">
         <f t="shared" ref="K48:K54" si="6">SUM(H48:J48)</f>
         <v>150</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="16">
         <v>2</v>
       </c>
@@ -13391,28 +13396,28 @@
       <c r="E49" s="20">
         <v>3</v>
       </c>
-      <c r="F49" s="122">
+      <c r="F49" s="89">
         <v>50</v>
       </c>
-      <c r="G49" s="122">
+      <c r="G49" s="89">
         <f t="shared" ref="G49:G51" si="7">E49*F49</f>
         <v>150</v>
       </c>
-      <c r="H49" s="122">
+      <c r="H49" s="89">
         <f t="shared" ref="H49:H53" si="8">F49*2</f>
         <v>100</v>
       </c>
-      <c r="I49" s="122">
+      <c r="I49" s="89">
         <f t="shared" ref="I49:I53" si="9">F49</f>
         <v>50</v>
       </c>
-      <c r="J49" s="122"/>
+      <c r="J49" s="89"/>
       <c r="K49" s="30">
         <f t="shared" si="6"/>
         <v>150</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="16">
         <v>4</v>
       </c>
@@ -13426,28 +13431,28 @@
       <c r="E50" s="20">
         <v>3</v>
       </c>
-      <c r="F50" s="122">
+      <c r="F50" s="89">
         <v>50</v>
       </c>
-      <c r="G50" s="122">
+      <c r="G50" s="89">
         <f t="shared" si="7"/>
         <v>150</v>
       </c>
-      <c r="H50" s="122">
+      <c r="H50" s="89">
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="I50" s="122">
+      <c r="I50" s="89">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="J50" s="122"/>
+      <c r="J50" s="89"/>
       <c r="K50" s="30">
         <f t="shared" si="6"/>
         <v>150</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="16">
         <v>5</v>
       </c>
@@ -13461,28 +13466,28 @@
       <c r="E51" s="20">
         <v>3</v>
       </c>
-      <c r="F51" s="122">
+      <c r="F51" s="89">
         <v>50</v>
       </c>
-      <c r="G51" s="122">
+      <c r="G51" s="89">
         <f t="shared" si="7"/>
         <v>150</v>
       </c>
-      <c r="H51" s="122">
+      <c r="H51" s="89">
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="I51" s="122">
+      <c r="I51" s="89">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="J51" s="122"/>
+      <c r="J51" s="89"/>
       <c r="K51" s="30">
         <f t="shared" si="6"/>
         <v>150</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="16">
         <v>6</v>
       </c>
@@ -13496,28 +13501,28 @@
       <c r="E52" s="20">
         <v>3</v>
       </c>
-      <c r="F52" s="122">
+      <c r="F52" s="89">
         <v>50</v>
       </c>
-      <c r="G52" s="122">
+      <c r="G52" s="89">
         <f t="shared" ref="G52:G54" si="10">E52*F52</f>
         <v>150</v>
       </c>
-      <c r="H52" s="122">
+      <c r="H52" s="89">
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="I52" s="122">
+      <c r="I52" s="89">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="J52" s="122"/>
+      <c r="J52" s="89"/>
       <c r="K52" s="30">
         <f t="shared" si="6"/>
         <v>150</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="16">
         <v>7</v>
       </c>
@@ -13531,28 +13536,28 @@
       <c r="E53" s="20">
         <v>3</v>
       </c>
-      <c r="F53" s="122">
+      <c r="F53" s="89">
         <v>50</v>
       </c>
-      <c r="G53" s="122">
+      <c r="G53" s="89">
         <f t="shared" si="10"/>
         <v>150</v>
       </c>
-      <c r="H53" s="122">
+      <c r="H53" s="89">
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="I53" s="122">
+      <c r="I53" s="89">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="J53" s="122"/>
+      <c r="J53" s="89"/>
       <c r="K53" s="30">
         <f t="shared" si="6"/>
         <v>150</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="31"/>
       <c r="B54" s="34" t="s">
         <v>199</v>
@@ -13564,19 +13569,19 @@
       <c r="E54" s="33">
         <v>1</v>
       </c>
-      <c r="F54" s="122">
+      <c r="F54" s="89">
         <v>5000</v>
       </c>
-      <c r="G54" s="123">
+      <c r="G54" s="90">
         <f t="shared" si="10"/>
         <v>5000</v>
       </c>
-      <c r="H54" s="122"/>
-      <c r="I54" s="122">
+      <c r="H54" s="89"/>
+      <c r="I54" s="89">
         <f>+G54/2</f>
         <v>2500</v>
       </c>
-      <c r="J54" s="122">
+      <c r="J54" s="89">
         <f>+I54</f>
         <v>2500</v>
       </c>
@@ -13585,15 +13590,15 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="119" t="s">
+    <row r="55" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="122" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="120"/>
-      <c r="D55" s="120"/>
-      <c r="E55" s="120"/>
-      <c r="F55" s="121"/>
-      <c r="G55" s="124">
+      <c r="C55" s="123"/>
+      <c r="D55" s="123"/>
+      <c r="E55" s="123"/>
+      <c r="F55" s="124"/>
+      <c r="G55" s="91">
         <f>+G3+G12+G14+G18+G44+G47+G54</f>
         <v>120036.5</v>
       </c>
@@ -13614,13 +13619,13 @@
         <v>112036.5</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K56" s="30">
         <f>SUM(H55:J55)</f>
         <v>112036.5</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G59" s="30"/>
     </row>
   </sheetData>
